--- a/data/hotels_by_city/Dallas/Dallas_shard_247.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_247.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="553">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Southernersdotravel</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>I was in room 308 a room with a door bell for some reason and my stay was this past week. The walls are paper thin I could hear the person in the room above me constantly sounded like elephants going back and forth. When I call to the front desk to tell them he basically said nothing. Upon check in i had to repeat my self three times with my last name as he couldn't find me in the reservation even though all he had to do was pick up my id or credit card that I placed on the desk.After checking in he never advised me of any of the hotels offerings including breakfast. The room was clean and bed was firm.  The AC was stupid, I like the room cold and all i could do was put it on 65 degrees as it didn't let me go any further down and that really didn't keep the room cold plus it was loud when turning on or off. I want to say on Wednesday morning after breakfast I went to the front desk asked for the manager as they had trash pick up at 4:40 am that jolted me awake and I am sure everyone else.  I asked he why this happened so early instead of being concerned she told me that she couldn't change the time. Now I work in a industry where I know for a...I was in room 308 a room with a door bell for some reason and my stay was this past week. The walls are paper thin I could hear the person in the room above me constantly sounded like elephants going back and forth. When I call to the front desk to tell them he basically said nothing. Upon check in i had to repeat my self three times with my last name as he couldn't find me in the reservation even though all he had to do was pick up my id or credit card that I placed on the desk.After checking in he never advised me of any of the hotels offerings including breakfast. The room was clean and bed was firm.  The AC was stupid, I like the room cold and all i could do was put it on 65 degrees as it didn't let me go any further down and that really didn't keep the room cold plus it was loud when turning on or off. I want to say on Wednesday morning after breakfast I went to the front desk asked for the manager as they had trash pick up at 4:40 am that jolted me awake and I am sure everyone else.  I asked he why this happened so early instead of being concerned she told me that she couldn't change the time. Now I work in a industry where I know for a fact that they can change the time of pick up, she needs to go back to training to understand how to treat a quest her attitude was in the trash how she is the manager should be a concern to all.  The breakfast was good the coffee was horrible.  As a business traveler we stay in a lot of hotels a lot of us don't expect a lot but a clean room and a friendly staff and to be treated well. The front desk staff never would look up from their computers to say hello, good morning, how is your stay etc.  The only person who asked me about my stay and if everything was good was the maintenance man, I saw him every afternoon and he was the nicest person.  The owner of this place needs to retrain all of their staff on how to treat customers.  I will not stay here again and advise anyone that I know of not to do so as well.More</t>
   </si>
   <si>
+    <t>VirenHM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r571079501-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>Stale breakfast and fruits. When asked for fresh fruits, manager said we don't have any. No sorry, nothing. Walls are paper thin. I kept hearing neighbors all night, toilets Flushing, loud TV. In my room the AC was loud. In my 9 years with Marriott, I've seldom seen such poor properties.I reminded the girl at front desk about the bonus points with my rate code at check-in and at checkout. Sher promised she'll get the manager to contact me. No points, no contact from the manager. I was not impressed by the service at all; not up to Marriott standards. I was given a handicap room at first, why? When I asked they said "no reason" and changed it!More</t>
   </si>
   <si>
+    <t>Necole</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r570291602-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Russell_Ann</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r565263522-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>Ahsaki T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r548747683-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>First of all I will not recommend this hotel to anyone! I was greeted by Blessed who was absolutely amazing for trying her very best to make sure I was well taken care of. I checked into the hotel at 12 pm and was paying a set rate in cash. I then paid for my room and placed a card on file for incidentals only! Around 4 hours later I received another authorization on my card for another fee 3 times more than the rate of my room. I then talked to Anthony who was by far the most unprofessional individual I have ever encountered at a hotel. When I went down to the front desk he told me it was a discrepancy in my rate and it had been taken care of. What I didn't know was he authorized my card for more money other than what was only placed on file for incidentals without my knowledge and/or signature. I then provided paperwork verifying the rate I was supposed to receive but he was not budging. He lied repeatedly and told me he was the General Manager which he was not. I went back down this morning to talk to the  front desk clerk which happened to be Blessed again. She tried hard to take care of it and knew of the mistakes her co-worker had made. She was very apologetic of the situation and tried to fix it....First of all I will not recommend this hotel to anyone! I was greeted by Blessed who was absolutely amazing for trying her very best to make sure I was well taken care of. I checked into the hotel at 12 pm and was paying a set rate in cash. I then paid for my room and placed a card on file for incidentals only! Around 4 hours later I received another authorization on my card for another fee 3 times more than the rate of my room. I then talked to Anthony who was by far the most unprofessional individual I have ever encountered at a hotel. When I went down to the front desk he told me it was a discrepancy in my rate and it had been taken care of. What I didn't know was he authorized my card for more money other than what was only placed on file for incidentals without my knowledge and/or signature. I then provided paperwork verifying the rate I was supposed to receive but he was not budging. He lied repeatedly and told me he was the General Manager which he was not. I went back down this morning to talk to the  front desk clerk which happened to be Blessed again. She tried hard to take care of it and knew of the mistakes her co-worker had made. She was very apologetic of the situation and tried to fix it. Her General Manager refused to speak with me several times over the phone and in person repeatedly. I was also lied to about her being absent from work when she was right in the office. She told Blessed not to change anything. My card was over drafted a significant amount of money due to the ill mannered nuisances of Anthony and how he handled everything and I can't get that back. I have notified the corporate office and a case has been opened. I will not stop until this issue is resolved. I am very disappointed that this Fairfield Inn is not up to the Marriott standards.More</t>
   </si>
   <si>
+    <t>RMurray847</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r548684583-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t>My son (age 30) and I stayed here in November, 2017 for 2 nights.  We were in town to see a Cowboys game (our first!) and this hotel was 1)  not too far from Love Field, 2) not too far from the Stadium, 3) far enough away from the stadium to still be very reasonably priced.  There isn't much right around the hotel, except some fast food places...but it's VERY convenient to the Interstate and for a sprawling metropolis like Dallas/Ft. Worth, it is not super close to anything, but not super far from anything either.  We made a good choice, overall, for our various activities.The place itself is nothing special, but there's nothing wrong.  Comfortable beds, decent TV, decent bathroom.  An above average breakfast buffet in a small but attractive lobby.  The hotel was full of football fans when we were there, but we never heard any rowdiness from our rooms.  If you're looking for reasonably priced, no-frills but no scares in a good location...I certainly recommend this place.  The Fairfield Inns fill a particular niche for inexpensive travel, and we had no issues with our choice.More</t>
   </si>
   <si>
+    <t>khugs16</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r547905232-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -312,6 +333,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Ladii R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r544132721-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -336,6 +360,9 @@
     <t>I was offered a discount for my stay since the loud noise coming out of the mechanic room is unstoppable due to the AC functions. I don't need a discount. I don't need rewards. I need sleep. A full nights sleep as one should receive. Apparently according the Shmeka, the front desk clerk, this room has never reported  complaints however I just read one on here. So after she told me there was no more rooms, she said she would call me back to my room to.... I don't know what. It's been an hour and no call. Not only that, I have called 3 times to the front desk and no answer. If there is no more rooms available, then fine, I have no choice but to find a way to sleep through this noise I guess. However, she could atleast have the decency to keep her word and call me to perhaps just show that she made some type of effort in providing this so called "promise of the guest being satisfied". The hotel is nice. I'll give them that, but room 214 is not the room to be in and Shmeka needs to ask around what Fairfields #1 priority is. It's unbelievable how calm I have remained.More</t>
   </si>
   <si>
+    <t>LuisAMM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r534603061-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -363,6 +390,9 @@
     <t>You will never check in before 3:00 PM and before employees shift change ! Too much noise in the room with the air conditioning ...The breakfast is good and the gym room very simple.Very early your check out will be at the door to ensure your way out and leave the room empty ... like they love ..More</t>
   </si>
   <si>
+    <t>1Longhorns</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r534035542-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -381,6 +411,9 @@
     <t>We arrived in the evening and Shameka checked us in. She was very friendly and very knowledgeable of the hotel. She explained what was available at the hotel at that hour and told us we were welcome to hang out in the lobby if we like. She explained breakfast, which included eggs, sausage, waffles along with fruits, pastries and oatmeal. I didn't grab one but there were USA Today newspapers for the taking. The outside and inside of the hotel was nice, clean and well maintained. There were places close by (5min away) to eat, mostly fast food and a Chili's. It has been a long time since I have stayed at a Fairfield Inn. If they are all this nice I will need to start looking at them when I travel. The next time we are in Dallas we will be staying here.More</t>
   </si>
   <si>
+    <t>Robin G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r530504951-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -396,6 +429,9 @@
     <t>I had the pleasure of staying here one night and was blown away by the customer service at the front desk by April. She was extremely nice and helpful. My room was roomy, clean, and bed was most comfortable. The breakfast was standard continental style such as other Fairfield Inn. There are some restaurants and food places less than a mile away and a Walmart very close. Enjoyed my stay and really liked the customer service.  Will definitely be coming back again.</t>
   </si>
   <si>
+    <t>Lowell N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r520759731-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -423,6 +459,9 @@
     <t>Stayed 2 nights for AdvoCare kickoff classic at at&amp;t field.  Room was clean, modern, and comfortable.  Free breakfast was good.  Typical spread minus bacon strips.  Convenient location outside of Dallas proper.  Would stay here again given price and football activities.More</t>
   </si>
   <si>
+    <t>Sallyken13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r512598028-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -441,6 +480,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>Kimmidolli</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r510977846-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -456,6 +498,9 @@
     <t>First hotel we stayed in when we arrived in the States from Australia.  We had read previous reviews and were looking forward to meeting Blessed.  She did not disappoint and we felt extremely welcome by her and other staff.  Just be careful to head to the correct North Cockrell Hill Rd.  Our GPS took us on a drive in the opposite direction (although lovely houses to look at along the way).  When we called to check the location we were advised that this happens to other people too.  Highly recommend.</t>
   </si>
   <si>
+    <t>Warrior44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r496382033-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -474,6 +519,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Shane S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r495008681-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -489,6 +537,9 @@
     <t>This Fairfield is almost brand new and the staff was amazing. Blessed greeted us at the front desk, one of the best ! Very helpful and cordial. Darrin went out of his way to make sure my wife and another guest had white wine during the hospitality hour. He was very sincere in ensuring our stay was the best experience. Thanks you two!</t>
   </si>
   <si>
+    <t>Matt K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r494124324-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -504,6 +555,9 @@
     <t>The location of this hotel was extremely convenient as I was visiting both Fort Worth as well as Dallas. This hotel is basically brand new, so everything was still pristine. My room was quiet. I would stay here again in the future.</t>
   </si>
   <si>
+    <t>chevybb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r490086905-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -516,6 +570,9 @@
     <t>From the moment you walk in the door, this place feels great. It's new and clean; the staff was welcoming and the prices are good. Loved the spacious room layout and the beds were very comfortable. We used the pool and the fitness room. No complaints about this property, and a big thank you to Jennifer at the front desk.</t>
   </si>
   <si>
+    <t>Nathan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r484655731-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -537,6 +594,9 @@
     <t>This hotel is relatively new so the facilities sparkle, almost as much as the staff.  Everyone we encountered was friendly, in particular Bliss at the front desk.  They had a lovely social hour the night we arrived, and breakfast each morning was bountiful and had lots of variety.  They even had veggie sausage one of the mornings, which was great for both my girlfriend and I. The gym was clean and always had clean towels and water.  There's always fresh coffee in the lobby and I was able to print our boarding passes in less than a minute from the business center.  The room itself was clean and quiet, and I appreciate the shower design where you can turn the water on and adjust the temperature without getting wet.  There's no restaurant at the hotel but there are plenty of food options walking distance, and the hotel has quick microwaveable food if you need it.  Wifi was free and problem-free.  I would stay here again without hesitation, they do a fantastic job!More</t>
   </si>
   <si>
+    <t>Carol55Travels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r480247752-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -558,6 +618,9 @@
     <t>Located in a warehouse part of town, this new facility surprised us by upgrading to a suite that we were not aware was available at Fairfield's.  Our comfort level was high with the traditional comfortable Marriott bed, well appointed bathroom, TV that was good and easy to understand, and wonderfully high speed internet.  Complementary happy hour occurs on Tuesdays and Wednesdays and includes wine and beer, chicken bites, cheese and veggies with dip.  Complementary breakfast is the standard fare for Marriott and done well.  Front desk staff was very friendly and helpful and deserve kudos for being prepared with an extensive list of area restaurants categorized by cuisine ready to go.  That was very much appreciated as there are no restaurants in the immediate area.  No more than 20 minutes of travel in any direction brings a traveller extensive dining choices in Dallas and a chance to see a bit of the city in the process.  Very nice overnight experience in total.More</t>
   </si>
   <si>
+    <t>JKK123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r476102813-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -573,6 +636,9 @@
     <t xml:space="preserve">Nice property. Only 1 year old so still fresh. Did not use gym or indoor pool but both appeared tidy &amp; nice. Had king suite &amp; room very clean. Bed was firm but decent. Pillows &amp; linens nice quality. Breakfast variety good (eggs/waffles/etc) &amp; coffee good &amp; very hot!Hotel convenient to freeway &amp; a block down from multiple gas stations, fast food, &amp; a Walmart. Only 10 min drive down freeway to downtown Dallas. No complaints a nice Marriott property. </t>
   </si>
   <si>
+    <t>Lee M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r474555666-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -591,6 +657,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>Glenn C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r473258945-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -606,6 +675,9 @@
     <t>It's a new hotel, all the amenities are nice. It's tucked away from all the hustle and bustle but also gives you very easy access to so many restaurants and stores if necessary. With that said, the best part of the trip was Ms./Mrs. (Not sure which) Blessed. She was/is the bomb of a person. A sweet heart that helped from the moment I stepped in to the moment I walked out. I</t>
   </si>
   <si>
+    <t>Amy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r470973459-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -633,6 +705,9 @@
     <t>The second night we stayed here, our Escalade SUV got stolen from the hotel parking lot. We were told after it got stolen that this area of Dallas is VERY unsafe. Looks are deceiving because the area looks new and nice. The hotel itself was very nice and clean. The hotel staff were AMAZING during the whole ordeal. They even called in an extra staff person to help deal with our situation. After the police got there, they reviewed the hotel's security cameras and it showed our SUV being stolen less than 10 mins after we arrived back to the hotel after having dinner nearby. The cop assumed we were followed back to the hotel. Had this not happened to us, I would rate a 5 however I hope anyone that is considering staying here reconsiders due to the extremely unsafe area it resides in! We paid over $900 for two rooms for 3 nights. Had we seen a review like this before, we NEVER would have stayed here!More</t>
   </si>
   <si>
+    <t>Chase P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r469654425-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -654,6 +729,9 @@
     <t>We checked in to this hotel at 12:30 AM and after completing the early check in procedure on my phone, still had to wait nearly five minutes and get out my credit card and drivers license in order to check in. This should be a thirty second process. I also called the hotel and confirmed I was on my way 3 hours before. Lastly, although the rest of the room appeared clean, a dirty towel was left behind our bathroom door. I reported this to the hotel and received managerial feedback within a few days. I was not thanked for my loyalty or given anything to remedy the situation. All that being said, I would give them another chance.More</t>
   </si>
   <si>
+    <t>Renee C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r469101616-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -672,6 +750,9 @@
     <t>The hotel was very nice,  but it was the staff that made it incredible.  A lot of times there is one awesome person at a hotel,  but every staff member here went out of their way to be extrodinary. Specifically though,  Chris was the epitome of above and beyond. My daughter got hurt in the elevator and I halfway expected a visit from a manager to sign some kind of waiver. Instead though,  Chris (who I believe does the laundry) who met my daughter at breakfast,  came up to check on her and then went out of his way to go and get her a toy to cheer her up.  Luckily,  my daughter was ok,  but if not for Chris, that experience might have marred our entire stay. This hotel is brand new, easy to get to,  and was modern but comfortable. We loved being able to sign into Netflix with our TV remote. We would absolutely stay here again. More</t>
   </si>
   <si>
+    <t>whooh43</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r462740881-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -690,6 +771,9 @@
     <t>I had a Great experience at the hotel the Customer Service Rep "Blessed" was a great help to me.. She assisted me, encouraged me constantly and greeted all of the guest with an enthusiastic attitude!! Great Experience!More</t>
   </si>
   <si>
+    <t>ryanlamasa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r462108180-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -705,6 +789,9 @@
     <t xml:space="preserve">I am a loyal Marriott member and stay at several Marriott locations however the Fairfield Inn in Dallas W/I-30 has the best customer service I have ever experienced. I have to mention her by name as she is an extraordinary employee for Marriott stop in and experience what all guest should experience with their employee Blessed. I have never seen a more positive individual and she will put a smile on your face no matter what type of day you're having. I hope this location realizes what a gem they have in her. </t>
   </si>
   <si>
+    <t>Tha_Bearded_1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r456802965-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -720,6 +807,9 @@
     <t>Everything was great...!!.  The hotel is off the highway and next to a KFC and Sonic.  The area does have a lot of fast food restaurants in the area.  The Chili's is decent at best..  The internet speed is awesome at 61 mbps down and up loading.   I plan on coming back to stay here.</t>
   </si>
   <si>
+    <t>Magus M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r455741542-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -738,6 +828,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>Mlbpafan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r450544654-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -759,6 +852,9 @@
     <t>I chose this hotel because of it's proximity to the Interstate and the rating.  I was not disappointed!  The property was extremely clean on arrival and the lobby was very nice as well.  You can tell this is a newer hotel and there is very limited traffic so the noise level is low.  The front desk person was very polite and got us checked in quickly.  The room was very nice and clean.  The TV was nice and new and the channels worked as they were supposed to.  The beds were very comfortable and the bathroom was clean and well-equipped.  The shower was nice and the hot water was quick!  The breakfast was very good and the breakfast staff was excellent!  They kept everything stocked and supplied.  The wi-fi was nice as well; fast and easy to connect to.  We will return to the hotel in the future and I have no problem recommending it to others.More</t>
   </si>
   <si>
+    <t>mnortiz03</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r448361871-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -777,6 +873,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>Laura S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r445858566-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -792,6 +891,9 @@
     <t xml:space="preserve">Stayed at the Fairfield Inn  for the dallas cowboys game 8 miles from love field  and 9 miles from AT&amp;T  stadium . This is a new hotel with a great staff  and good room rates  and good location  will definitely stay again.  </t>
   </si>
   <si>
+    <t>Coach5000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r443736723-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -810,6 +912,9 @@
     <t>I travel to Dallas on occasion, and always use Love Field and Southwest Airlines. I was looking for a hotel near Love, but not on top of it. I located this new Fairfield Inn, and it's only about 20 minutes from the airfield - perfect for me. Upon arrival, it's very obvious that the property is brand new as it is well appointed with modern decor, and it still shines like it opened just yesterday. As you might expect, the hotel is extremely clean and the sleep quality is good. The front desk staff was incredibly personable and professional during my stay, and helped me navigate the local area. The complimentary breakfast was OK, but nothing over the top. I have stayed here and at the neighboring Hampton Inn, and strongly suggest choosing the Fairfield as it is much nicer.More</t>
   </si>
   <si>
+    <t>Sandi J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r443189337-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -825,6 +930,9 @@
     <t xml:space="preserve">What a great hotel to stay at so glad my husband and I stayed here. They have the best employees and you can tell they enjoy thier jobs. Blessed is amazing at her job and was just amazing. I watched at breakfast the staff help a gal that had several younger kids with her, get cereal and breakfast. The room was very clean and loved the huge walk in shower. The whole staff went above and beyond to make us feel welcomed. Will stay again if we are in Dallas. </t>
   </si>
   <si>
+    <t>NOZRV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r442656918-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -840,6 +948,9 @@
     <t>I was there for a couple of days for work and usually always try to stay at a Fairfield or similar.  Most time the free breakfast is pretty decent but not here.There was a large container of water with lemon slices in the lobby. I poured some in a cup and it was disgusting - it was warm, off-color, and sludgy tasting like it was days old.  The scrambled eggs smelled like dirty socks, needless to say I did not eat them.  The fresh fruit bowl had some old soggy fruit in it and a couple of the grapes had some white stuff on them like mold.</t>
   </si>
   <si>
+    <t>Carol W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r442048424-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -858,6 +969,9 @@
     <t>This entire staff is the quintessential example of customer service excellence. I wish I would have been aware enough to capture everyone's names, but in particular Jamila Carter and Blessed Jefferson went ABOVE and beyond to not only make us feel welcomed and appreciated but their friendliness and professionalism should be an example to the customer service industry. We are Gold Members, have frequented international Marriotts and are currently traveling across the country. This establishment is head and shoulders above the others!  This is our 8th night (fourth state) and we have been made to feel at home in Dallas. In a competitive hotel industry it is imperative that brands consistently strive to instill loyalty; this Fairfield Inn &amp; Suites by Marriott, Dallas West, further solidified our brand loyalty by giving us one of our best hotel experiences ever. We highly recommend this Marriott accommodation. Thank you!  More</t>
   </si>
   <si>
+    <t>Ricky B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r439378561-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -876,6 +990,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>Odis R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r438176988-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -891,6 +1008,9 @@
     <t>I used this marvelous hotel for my 6th Annual Texas Sk8 Fair Classic room block this year and I must say this is the best hotel we have ever used. All 60+ of our guest were absolutely pleased with the hospitality, friendly staff members and the cleanliness of the hotel. Everyone from the general manager to the property manager and all the staff were very knowledgeable of the hotel and all of its policies.Special thanks to Shontina, Blessed and Jermila.you ladies ROCK.THANK YOU FROM O.D. ROWLETT. WE WILL DEFINITELY SEE YOU ALL NEXT YEAR.</t>
   </si>
   <si>
+    <t>Mike B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r437922498-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -906,6 +1026,9 @@
     <t>Very friendly staff, Manager's Reception on Tuesdays and Wednesdays, they understand hospitality and treat everyone as a valued guest. New property and I love the feather pillows. I'll definitely stay here whenever I'm in the area.</t>
   </si>
   <si>
+    <t>beforeman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r436195795-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -921,6 +1044,9 @@
     <t>Brand new hotel. Up to date furnishings. Clean. Loved the executive suite room. Comfortable  furniture. Nice lobby and eating area. Breakfast was better than your typical Fairfield. I really liked the free beer and munchies at happy hour. Staff was very, very friendly and helpful. Will be coming back here again when in the area.</t>
   </si>
   <si>
+    <t>Kristina R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r433249654-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -936,6 +1062,9 @@
     <t>I have never felt so at home in a hotel in my life. A wonderful clean facility, great breakfast, and a very special staff. A lady named Blessed who works at the front desk is nothing short of a blessing! A woman full of joy. I am blessed to have met her and the other staff members. Highly recommend staying here while in Dallas! :)</t>
   </si>
   <si>
+    <t>kimclayborn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r432288435-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -951,6 +1080,9 @@
     <t>This is my second stay here. Each visit I was here for a week.  There is a lady at the desk name Blessed. She is a blessing. She is so kind. She speaks every time she sees someone. Always pleasant. Each time I come in with my hands full she gets the elevator for me.  She is so pleasant. I look forward to seeing her when I visit</t>
   </si>
   <si>
+    <t>Banffflyr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r432111065-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -963,6 +1095,9 @@
     <t>Nice new place with great rooms and clean common areas . Location is the low point as it's in between an Interstate and an industrial neighborhood. Uber and Lyft to downtown about $10. There are some local restaurants in the area but no other life to speak of. Wouldn't stay here without a car.</t>
   </si>
   <si>
+    <t>gangstas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r428964455-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -978,6 +1113,9 @@
     <t xml:space="preserve">Just want to keep short a pleasant relaxing trip to Dallas tx Fairfield inn. It all starts with a woman her name is BLESSED. She is very professional and patient she greets you as soon as u walk in building like u just arrived home away from home she also accomadates your every need. </t>
   </si>
   <si>
+    <t>760angelaw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r428834667-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -990,6 +1128,9 @@
     <t>The entire stay at this hotel was perfect.  The front desk staff was outstanding! The hotel is beautiful and modern! There were a lot of guests there the weekend I traveled for a skating event but each guest was treated like they were no. 1.If I had a choice, I would box this hotel up, staff included, and bring them with me to each state I visit!  Jamila, the front desk agent went above and beyond.  Anyone visiting the Dallas area, you get all the amenities of a pricey hotel at a fraction of the cost staying here.  Highly recommended!!!</t>
   </si>
   <si>
+    <t>awatkinsmes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r427274292-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1008,6 +1149,9 @@
     <t>The overall experience for this hotel can be summed up in one word Blessed. If you have a choice of a hotel in Dallas please visit this one, not only is it new but the staff is amazing. Blessed was there from the moment we walked in the door, she greeted us each time with a smile and hello. The first day we checked in we came straight from the airport where my bag never arrived, we inquired if we could check in early, we were not able to be Blessed showed me to the bathroom where I could at least freshen up and feel a little better about the situation. We stayed for one night and traveled out of the area, upon our return 3 days later again Blessed greeted us with a big smile and this time a hug! Unbelievable that she remembered us after all of the people that came through. Again I can not say enough about this wonderful lady who said her goal is to make sure everyone is treated the same way she would want to be treated. Please go see Blessed and make sure she knows how special she is!!More</t>
   </si>
   <si>
+    <t>awdivv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r426718611-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1032,6 +1176,9 @@
     <t>Why pay a extra fee for nightly parking at a downtown hotel when this hotel is new, clean and right next to downtown. Hotel staff during our stay was very nice and accommodating. The only drawback I would say is not with the hotel but with Dallas traffic.More</t>
   </si>
   <si>
+    <t>Josh J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r424770659-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1050,6 +1197,9 @@
     <t>First off, I am a platinum rewards member with 130 nights in Marriott hotels so far this year. With that being said, this is by far the best Fairfield inn I have every stayed in. This Fairfield inn has a beautiful new building, with staff that strives to go the extra mile. They have a state of the art, roomy gym and warm breakfast every morning. Being 15 minutes away from downtown Dallas makes it at an exceptionally convenient location. The manager Shontina has a wealth of knowledge and experience. She has a huge network in the local area so if you have any questions she is the lady with the know how.More</t>
   </si>
   <si>
+    <t>Namsh26</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r424285377-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1071,6 +1221,9 @@
     <t>This is a great place with upscale look. Rooms were clean..all staff is very friendly and helpful.  Walmart and many restaurants around the place. Spacious and clean rooms, Well equipped gym, swimming pool etc make it a good choice to stay.More</t>
   </si>
   <si>
+    <t>Ida K B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r422247663-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1089,6 +1242,9 @@
     <t>We were in Mansfield for a friend's wedding and met up with our grown children.  The hotel was easy to locate, very clean, and our bed was comfortable.  The continental breakfast included with our stay was exceptional with good variety and quality food products, tasty, handled correctly, and the hostess was probably the nicest we have encountered at any hotel breakfast.  The only drawback was that we arrived on a busy Friday afternoon at 4:15 pm and our room was not ready until 5:15 pm, possibly because they had two different wedding parties arriving that day.More</t>
   </si>
   <si>
+    <t>Susan Elizabeth H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r417261155-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1110,6 +1266,9 @@
     <t>I have been staying at this hotel since the beginning on June and wouldn't dream of staying anywhere else.  I love the staff of this hotel.  With all of the travel I have done, I have never stayed anywhere that had such an overall amazing staff.  I absolutely love the following staff members: Blessed, Chris, Jorge, Jamila and Harmony!  These 5 individuals are fantastic and feel like family to me.  They greet me with a hug every time I walk through the doors.  They treat all of their guests as though there is nothing they wouldn't do for them!  Aaron, the Manager is also fantastic and has hired an amazing team.  As a business woman, I can certainly attest to the fact that it is not always easy to get the best.....Aaron  did.  To the owner of the hotel, please take good care of this team, including their pay,  as they are taking excellent care of you by taking excellent care of the guests!  There isn't a lot of difference between hotel rooms at this level.  The staff makes all the difference in the world.  They are the reason I return every week! Thank you!More</t>
   </si>
   <si>
+    <t>Skip B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r411730325-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1125,6 +1284,9 @@
     <t>I stay in over 150 Marriott nights a year and I can't wait to come back to this one. I hope when you come to stay that Blessed is working. She will brighten your day every time you see her. She makes this place amazing!! Of course the hotel is great but WOW!!! Great job Blessed. Thanks for the great stay!!</t>
   </si>
   <si>
+    <t>Mike P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r406670695-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1138,6 +1300,9 @@
   </si>
   <si>
     <t>I travel almost weekly and it's amazing how construction quality of chain hotels differs. Many of the newer Marriott properties are much more soundproof than the older ones. However, this brand new Fairfield seems to have almost no soundproofing an you can clearly hear a normal conversation in your neighboring rooms. Otherwise, very good stay. Friendly staff, good free breakfast and loved having a newer treadmill that wasn't missing pieces like many other hotels.</t>
+  </si>
+  <si>
+    <t>nowincolorado</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r402256086-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
@@ -1177,6 +1342,9 @@
 What I did not find peaceful were the neighbors in the room next to me.  They played music that I could hear through the wall.  It sounded like there was a baby grand piano right on the other...This hotel was "ok"Check in was fine.  Hotel was clean.  Room was nice but it had the longest entryway into a room I have ever seen in any hotel!  It was like a hallway - see photo.  In the photo, that is a mirror on the left side, not another room - it is just the reflection.  On the right side is the bathroom and kitchenette area.  The entryway was so long, I think a twin bed could have fit there!I think it's such a long entryway to so you wouldn't hear as much hallway noise in your room.  There was also no tub, just a shower.  See photo.I asked for a quiet room and was shocked to find out they placed me right next to the ice machine which made a high pitched noise. It could be heard from the hallway but thankfully not in my room.However, there was outside noise that could be heard in my room and it started about an hour after I was there - it sounded like I was next to the hotel's A/C unit.  But I found the constant motor noise was rather peaceful - like white noise in the background.What I did not find peaceful were the neighbors in the room next to me.  They played music that I could hear through the wall.  It sounded like there was a baby grand piano right on the other side of the wall!  Followed by a set of drums.  I don't think the music was loud, I think the walls just weren't very soundproof.Breakfast was a bit surprising.  I travel a lot and have never seen such a sparse selection for breakfast.  I am not taking about variety but about quantity.  I was there early and there were only two other guests so it wasn't that the food ran out, it simply wasn't available.  For instance - there were 4 yogurts in the frig.  Not 4 flavors - just 4 containers of yogurts in the mostly empty refrigerator.  I wanted salt &amp; pepper for my eggs.  There were no packets.  There were none on the tables.  There was one pepper and one salt shaker for the entire dining room to share.  Things like that just made me think they were being skimpy at breakfast.Avoid the eggs.  I took one bite and spit them out.  They were hot and had good texture and color but literally tasted exactly like rotten eggs smell!  Not good.It was an ok hotel.  I had an early morning conference is why I stayed here.  I am not sure I would stay here again due to it not being totally quiet and the breakfast left much to be desired.  But if I had to, I could handle another night.  So really, it was just ok so I gave it an average rating.More</t>
   </si>
   <si>
+    <t>kmcangl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r400603318-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1195,6 +1363,9 @@
     <t>The hotel and staff are amazing. The rooms are clean, the staff works hard to make sure you are enjoying your stay and they are there to help whenever they can. The location provides easy access to both dallas and fort worth and everything in between. More</t>
   </si>
   <si>
+    <t>Dcartermn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r399380521-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1213,6 +1384,9 @@
     <t>We've completed half of our two week stay here. I can't say enough good things about the wonderful staff, the cleanliness,  the yummy continental breakfast and everyone is so friendly! Looking forward to another fabulous week here! I highly recommend staying here!More</t>
   </si>
   <si>
+    <t>Jason H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r396387362-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1228,6 +1402,9 @@
     <t>Newly built hotel, clean facilities, friendly staff and situated in a safe neighborhood that is convenient to both Dallas and Arlington's most popular attractions.  Will certainly be back for another stay during out next trip to the metroplex.</t>
   </si>
   <si>
+    <t>Brenette</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r395684091-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1255,6 +1432,9 @@
     <t>Wonderful to stayin a hotel that is so very very new. It was squeaky clean , the hotel staff cheerful and accommodating and location is only a short trip into the city. The rooms just smelt so fresh and inviting. We just loved our stay here and wished it could have been more than just the one night.More</t>
   </si>
   <si>
+    <t>huttnutt42</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r393756797-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1273,6 +1453,9 @@
     <t>Can't say enough about the customer service.Blessed was accommodating and helpful in every way. She went out of her way to make sure we were comfortable and had everything we needed. Thanks Blessed and Fairfield inn.More</t>
   </si>
   <si>
+    <t>JESALAZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r388737272-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1297,6 +1480,9 @@
     <t>New hotel builded 3- 4 months. Nice and comfortable, small indoor pool, no spa. Good complementary full breakfast Buffett. The hotel needs to start paying attention to the detail, they are missing removing the trash from the garbage cans &amp; replacing the coffee. Nothing is around the hotel. There is a Walmart and restaurants close by, 2 min away driving. I would not suggest walking, the area does not feel safe.More</t>
   </si>
   <si>
+    <t>KidInfiniti</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r384014517-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1312,6 +1498,9 @@
     <t>We stayed here while in town for a concert.  Hotel was new and very clean.  Outstanding customer service from check in to checkout.  Hotel is in great location near I30 within short drive to at&amp;t stadium.We enjoyed our stay and will return later this year.  Free wifi and parking as usual.</t>
   </si>
   <si>
+    <t>Stephen P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r383455248-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1330,6 +1519,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Sheila R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r381244180-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1345,6 +1537,9 @@
     <t>New hotel. Great service, especially friendly &amp; helpful was Blessed, the front receptionist. Hot breakfast. I highly recommend this hotel next time you are visiting Dallas.  Fitness room and indoor pool. Convenient to many businesses, right off the interstate.</t>
   </si>
   <si>
+    <t>dreskee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r380376592-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1360,6 +1555,9 @@
     <t>This is a very new hotel. Opened in March 2016. Staff was great. We landed at 9:30 AM and took a chance on calling hotel to see if we could check in that early. We expected to hear that rooms were not available, but to our surprise the nice gentleman who answered the phone said we could come on in. We told him we would be there in 15 minutes and he had the breakfast staff leave food out for us even though the morning breakfast hour was over. Rooms were very clean and quiet. A lot of restaurants around hotel also.  Would definitely stay here again!!!</t>
   </si>
   <si>
+    <t>ZaidaStan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r378459155-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1375,6 +1573,9 @@
     <t xml:space="preserve">What else can I say? Located in a quiet suburb of Dallas, this hotel is close to everything one could want. It's brand new and very modern. The staff is soooo friendly and helpful. We were offered a room upgrade without having to ask for one. The breakfast area is clean, spacious, and very accessible. The hot breakfast is a good start to one's day. I will definitely recommend this property and will definitely return next time I'm in Dallas. </t>
   </si>
   <si>
+    <t>MadameD677</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r375219093-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1390,6 +1591,9 @@
     <t>The hotel was conveniently located and very clean.  The staff was very nice and accommodating.  I thought the bed was too hard for my taste and the breakfast ran low on most days.  I would stay there again though.</t>
   </si>
   <si>
+    <t>flyingtoday73</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r373847595-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1405,6 +1609,9 @@
     <t>This happens to be a brand new hotel.  I think the manager said 1 month old.  The staff was incredible.  They were very busy, the breakfast was nice and I really liked the gym. The room was very nice.  I enjoy blackout curtains and this place had the right size to make the room dark.  The TV was really nice.  They have Netflix built in to the TV.  I have only seen that at high end hotels.</t>
   </si>
   <si>
+    <t>mamabear122016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r373523165-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1417,6 +1624,9 @@
     <t>Nice, new facility. Very clean. Wonderful staff. Excellent breakfast. It was easy access off of I-30. Plenty of restaurants close by. Only 6-10 minutes from the Kay Bailey Hutchison Convention Center. A good value for your money.</t>
   </si>
   <si>
+    <t>Allen U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r369589739-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1435,6 +1645,9 @@
     <t>Booked this hotel for it being a new Fairfield Inn &amp; Suites which is a first for me however I enjoy Marriotts comfortable beds and I'm no stranger to the Fairfield chain of hotels. This hotel is located near Walmart and many restaurants along IH 30 and is only 10 minutes away from downtown Dallas and about 10 minutes from Arlington for the Rangers game. The hotel is very modern, staff is very courteous and attentive and room was spotless. If your an Elite Marriott Rewards member your given a free available upgrade to a suite all at no additional cost which was a plus for my stay. The a/c was a bit noisy, everything else in the room was perfect with their comfortable beds however their closet space was limited. Breakfast was average for Fairfield Inn hotel standards, indoor pool is small but the fitness gym is spacious with three treadmills and weights and filtered water dispenser inside. Overall, I highly recommend this hotel for their prompt service, clean rooms, and courteous staff, will consider on my next Dallas adventure. More</t>
   </si>
   <si>
+    <t>SeniorTraveler65575</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r369392598-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1454,6 +1667,9 @@
   </si>
   <si>
     <t>This is a one-month old new hotel just off Interstate 30 on Cockrell Hill Road.  We spent the last night of our vacation here.  The hotel has the "new" smell, very nice,  Check-in was good and the lobby is new and nice.  Our room had 2 queen beds, desk, 2 chairs, flat screen TV, fridge &amp; microwave and was a good size.  Everything was clean as you would expect with a new hotel.  Breakfast was very good with hot food and many other items to choose.  Parking was easy.  The location is near downtown Dallas, it is a nice area with a few restaurants close such as Chili's and Golden Corral.  The only negatives would be there was only 1 regular coffee and 1 decaf coffee in our room, should have been 2 of each, not a problem since there was coffee in the lobby.  There was no luggage rack for our suitcases.  The wi-fi was not very good.  The trash can outside the entrance was full and unsightly, needed to be dumped.  These were mostly minor issues which can be corrected, it was nice to stay at a new hotel, not often you can enjoy new carpet smell.More</t>
+  </si>
+  <si>
+    <t>Cliffye B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r368602847-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
@@ -1973,43 +2189,47 @@
       <c r="A2" t="n">
         <v>64848</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>136888</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -2027,56 +2247,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64848</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>136889</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2088,56 +2312,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64848</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>136890</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -2157,50 +2385,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64848</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>136891</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2214,50 +2446,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64848</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>136892</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2271,50 +2507,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64848</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>76660</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2334,50 +2574,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64848</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>136893</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2391,50 +2635,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64848</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>136894</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2446,56 +2694,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="X9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64848</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>136895</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="O10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2507,56 +2759,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="X10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64848</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>51167</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2574,50 +2830,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>64848</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>17504</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="O12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2631,50 +2891,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>64848</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>136896</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="O13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2686,56 +2950,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="X13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="Y13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>64848</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>136897</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="O14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2753,50 +3021,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>64848</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>136898</v>
+      </c>
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="K15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2814,50 +3086,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>64848</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>136899</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2871,50 +3147,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>64848</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>44653</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="J17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="K17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="L17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2928,50 +3208,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>64848</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>2995</v>
+      </c>
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="J18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="K18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O18" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2985,50 +3269,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>64848</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>136900</v>
+      </c>
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="J19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="K19" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O19" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3048,50 +3336,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>64848</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>37569</v>
+      </c>
+      <c r="C20" t="s">
+        <v>184</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="O20" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3105,50 +3397,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>64848</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>20884</v>
+      </c>
+      <c r="C21" t="s">
+        <v>192</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="J21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="O21" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3166,50 +3462,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>64848</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>136901</v>
+      </c>
+      <c r="C22" t="s">
+        <v>200</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="J22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="K22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="O22" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3223,50 +3523,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>64848</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>7440</v>
+      </c>
+      <c r="C23" t="s">
+        <v>206</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="J23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="K23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -3286,50 +3590,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>64848</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>43223</v>
+      </c>
+      <c r="C24" t="s">
+        <v>213</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="J24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="K24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3349,50 +3657,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>64848</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>30135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>219</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="J25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="O25" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3404,56 +3716,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="X25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="Y25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>64848</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>48336</v>
+      </c>
+      <c r="C26" t="s">
+        <v>229</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="J26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="K26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="O26" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3469,56 +3785,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="X26" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="Y26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>64848</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>15397</v>
+      </c>
+      <c r="C27" t="s">
+        <v>237</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="J27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="K27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="O27" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3530,56 +3850,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="X27" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="Y27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>64848</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>136902</v>
+      </c>
+      <c r="C28" t="s">
+        <v>244</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="J28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="K28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3597,56 +3921,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="X28" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="Y28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>64848</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>136903</v>
+      </c>
+      <c r="C29" t="s">
+        <v>251</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="J29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="O29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3660,50 +3988,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>64848</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>136904</v>
+      </c>
+      <c r="C30" t="s">
+        <v>257</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="J30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="K30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -3723,50 +4055,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>64848</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>136905</v>
+      </c>
+      <c r="C31" t="s">
+        <v>263</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="J31" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="K31" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="L31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3784,50 +4120,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>64848</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>19919</v>
+      </c>
+      <c r="C32" t="s">
+        <v>270</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="J32" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="K32" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="L32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="O32" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3847,50 +4187,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>64848</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>136906</v>
+      </c>
+      <c r="C33" t="s">
+        <v>278</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="J33" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="K33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="L33" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="O33" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3904,50 +4248,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>64848</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>12822</v>
+      </c>
+      <c r="C34" t="s">
+        <v>285</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="J34" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="K34" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="O34" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3961,50 +4309,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>64848</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>136907</v>
+      </c>
+      <c r="C35" t="s">
+        <v>291</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="J35" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="K35" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="L35" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4024,50 +4376,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>64848</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>136908</v>
+      </c>
+      <c r="C36" t="s">
+        <v>298</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="J36" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="K36" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="L36" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="O36" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4081,50 +4437,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>64848</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>136909</v>
+      </c>
+      <c r="C37" t="s">
+        <v>304</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="J37" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="K37" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="L37" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P37" t="n">
         <v>2</v>
@@ -4144,50 +4504,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>64848</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>29488</v>
+      </c>
+      <c r="C38" t="s">
+        <v>310</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="J38" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="K38" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="L38" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="O38" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4201,50 +4565,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>64848</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>15251</v>
+      </c>
+      <c r="C39" t="s">
+        <v>317</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="J39" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="K39" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="L39" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="O39" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4258,50 +4626,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>64848</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>136910</v>
+      </c>
+      <c r="C40" t="s">
+        <v>324</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="J40" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="K40" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="L40" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="O40" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4315,50 +4687,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>64848</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>2674</v>
+      </c>
+      <c r="C41" t="s">
+        <v>330</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="J41" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="K41" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="L41" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4372,50 +4748,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>64848</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>136911</v>
+      </c>
+      <c r="C42" t="s">
+        <v>336</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="J42" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="K42" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="L42" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="O42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4429,50 +4809,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>64848</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>2067</v>
+      </c>
+      <c r="C43" t="s">
+        <v>342</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="J43" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="K43" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="L43" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="O43" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4486,50 +4870,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>64848</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>136912</v>
+      </c>
+      <c r="C44" t="s">
+        <v>348</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="J44" t="s">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="K44" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="L44" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="O44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4547,50 +4935,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>64848</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>136913</v>
+      </c>
+      <c r="C45" t="s">
+        <v>354</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="J45" t="s">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="K45" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="L45" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="O45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4604,50 +4996,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>64848</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>136914</v>
+      </c>
+      <c r="C46" t="s">
+        <v>359</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="J46" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="K46" t="s">
-        <v>318</v>
+        <v>363</v>
       </c>
       <c r="L46" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="O46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4661,50 +5057,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>64848</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>136915</v>
+      </c>
+      <c r="C47" t="s">
+        <v>365</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="J47" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="K47" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="L47" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="O47" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -4724,50 +5124,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>64848</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>136916</v>
+      </c>
+      <c r="C48" t="s">
+        <v>370</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="J48" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="K48" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="L48" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="O48" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4785,50 +5189,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>64848</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>136917</v>
+      </c>
+      <c r="C49" t="s">
+        <v>377</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="J49" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="K49" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="L49" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="O49" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4844,56 +5252,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="X49" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="Y49" t="s">
-        <v>337</v>
+        <v>385</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>64848</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>12988</v>
+      </c>
+      <c r="C50" t="s">
+        <v>386</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="J50" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="K50" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="L50" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="O50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -4905,56 +5317,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="X50" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="Y50" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>64848</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>136918</v>
+      </c>
+      <c r="C51" t="s">
+        <v>393</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="J51" t="s">
-        <v>346</v>
+        <v>396</v>
       </c>
       <c r="K51" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="L51" t="s">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="O51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -4966,56 +5382,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="X51" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="Y51" t="s">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>64848</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>136919</v>
+      </c>
+      <c r="C52" t="s">
+        <v>401</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>351</v>
+        <v>402</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
       <c r="J52" t="s">
-        <v>353</v>
+        <v>404</v>
       </c>
       <c r="K52" t="s">
-        <v>354</v>
+        <v>405</v>
       </c>
       <c r="L52" t="s">
-        <v>355</v>
+        <v>406</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="O52" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5031,56 +5451,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="X52" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="Y52" t="s">
-        <v>356</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>64848</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>136920</v>
+      </c>
+      <c r="C53" t="s">
+        <v>408</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>357</v>
+        <v>409</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="J53" t="s">
-        <v>359</v>
+        <v>411</v>
       </c>
       <c r="K53" t="s">
-        <v>360</v>
+        <v>412</v>
       </c>
       <c r="L53" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>362</v>
+        <v>414</v>
       </c>
       <c r="O53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5098,50 +5522,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>64848</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>136921</v>
+      </c>
+      <c r="C54" t="s">
+        <v>416</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>364</v>
+        <v>417</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="J54" t="s">
-        <v>366</v>
+        <v>419</v>
       </c>
       <c r="K54" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="L54" t="s">
-        <v>368</v>
+        <v>421</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>362</v>
+        <v>414</v>
       </c>
       <c r="O54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5155,50 +5583,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>368</v>
+        <v>421</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>64848</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>7005</v>
+      </c>
+      <c r="C55" t="s">
+        <v>422</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>369</v>
+        <v>423</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="J55" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="K55" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="L55" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>362</v>
+        <v>414</v>
       </c>
       <c r="O55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5218,50 +5650,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>64848</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>136922</v>
+      </c>
+      <c r="C56" t="s">
+        <v>428</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>375</v>
+        <v>430</v>
       </c>
       <c r="J56" t="s">
-        <v>376</v>
+        <v>431</v>
       </c>
       <c r="K56" t="s">
-        <v>377</v>
+        <v>432</v>
       </c>
       <c r="L56" t="s">
-        <v>378</v>
+        <v>433</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
       <c r="O56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -5279,56 +5715,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>380</v>
+        <v>435</v>
       </c>
       <c r="X56" t="s">
-        <v>381</v>
+        <v>436</v>
       </c>
       <c r="Y56" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>64848</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>136923</v>
+      </c>
+      <c r="C57" t="s">
+        <v>438</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>383</v>
+        <v>439</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>384</v>
+        <v>440</v>
       </c>
       <c r="J57" t="s">
-        <v>385</v>
+        <v>441</v>
       </c>
       <c r="K57" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="L57" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
       <c r="O57" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -5340,56 +5780,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>380</v>
+        <v>435</v>
       </c>
       <c r="X57" t="s">
-        <v>381</v>
+        <v>436</v>
       </c>
       <c r="Y57" t="s">
-        <v>388</v>
+        <v>444</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>64848</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>136924</v>
+      </c>
+      <c r="C58" t="s">
+        <v>445</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="J58" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="K58" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="L58" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
       <c r="O58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -5401,56 +5845,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>380</v>
+        <v>435</v>
       </c>
       <c r="X58" t="s">
-        <v>381</v>
+        <v>436</v>
       </c>
       <c r="Y58" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>64848</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>15527</v>
+      </c>
+      <c r="C59" t="s">
+        <v>452</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="J59" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
       <c r="K59" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="L59" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
       <c r="O59" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -5464,50 +5912,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>64848</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>136925</v>
+      </c>
+      <c r="C60" t="s">
+        <v>458</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>400</v>
+        <v>459</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>401</v>
+        <v>460</v>
       </c>
       <c r="J60" t="s">
-        <v>402</v>
+        <v>461</v>
       </c>
       <c r="K60" t="s">
-        <v>403</v>
+        <v>462</v>
       </c>
       <c r="L60" t="s">
-        <v>404</v>
+        <v>463</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="O60" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -5523,56 +5975,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="X60" t="s">
-        <v>407</v>
+        <v>466</v>
       </c>
       <c r="Y60" t="s">
-        <v>408</v>
+        <v>467</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>64848</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>136926</v>
+      </c>
+      <c r="C61" t="s">
+        <v>468</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="J61" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="K61" t="s">
-        <v>412</v>
+        <v>472</v>
       </c>
       <c r="L61" t="s">
-        <v>413</v>
+        <v>473</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
       <c r="O61" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -5590,47 +6046,51 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="X61" t="s">
-        <v>407</v>
+        <v>466</v>
       </c>
       <c r="Y61" t="s">
-        <v>414</v>
+        <v>474</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>64848</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>136927</v>
+      </c>
+      <c r="C62" t="s">
+        <v>475</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>415</v>
+        <v>476</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>416</v>
+        <v>477</v>
       </c>
       <c r="J62" t="s">
-        <v>417</v>
+        <v>478</v>
       </c>
       <c r="K62" t="s">
-        <v>418</v>
+        <v>479</v>
       </c>
       <c r="L62" t="s">
-        <v>419</v>
+        <v>480</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
@@ -5647,56 +6107,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>420</v>
+        <v>481</v>
       </c>
       <c r="X62" t="s">
-        <v>421</v>
+        <v>482</v>
       </c>
       <c r="Y62" t="s">
-        <v>422</v>
+        <v>483</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>64848</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>136928</v>
+      </c>
+      <c r="C63" t="s">
+        <v>484</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>423</v>
+        <v>485</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>424</v>
+        <v>486</v>
       </c>
       <c r="J63" t="s">
-        <v>425</v>
+        <v>487</v>
       </c>
       <c r="K63" t="s">
-        <v>426</v>
+        <v>488</v>
       </c>
       <c r="L63" t="s">
-        <v>427</v>
+        <v>489</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="O63" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -5710,50 +6174,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>427</v>
+        <v>489</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>64848</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>31643</v>
+      </c>
+      <c r="C64" t="s">
+        <v>490</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>428</v>
+        <v>491</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>429</v>
+        <v>492</v>
       </c>
       <c r="J64" t="s">
-        <v>430</v>
+        <v>493</v>
       </c>
       <c r="K64" t="s">
-        <v>431</v>
+        <v>494</v>
       </c>
       <c r="L64" t="s">
-        <v>432</v>
+        <v>495</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="O64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -5771,50 +6239,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>432</v>
+        <v>495</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>64848</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>32640</v>
+      </c>
+      <c r="C65" t="s">
+        <v>497</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>434</v>
+        <v>498</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>435</v>
+        <v>499</v>
       </c>
       <c r="J65" t="s">
-        <v>436</v>
+        <v>500</v>
       </c>
       <c r="K65" t="s">
-        <v>437</v>
+        <v>501</v>
       </c>
       <c r="L65" t="s">
-        <v>438</v>
+        <v>502</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="O65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -5828,50 +6300,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>438</v>
+        <v>502</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>64848</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>35148</v>
+      </c>
+      <c r="C66" t="s">
+        <v>503</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>439</v>
+        <v>504</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>440</v>
+        <v>505</v>
       </c>
       <c r="J66" t="s">
-        <v>441</v>
+        <v>506</v>
       </c>
       <c r="K66" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="L66" t="s">
-        <v>443</v>
+        <v>508</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="O66" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -5889,50 +6365,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>443</v>
+        <v>508</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>64848</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>21841</v>
+      </c>
+      <c r="C67" t="s">
+        <v>509</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>444</v>
+        <v>510</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>445</v>
+        <v>511</v>
       </c>
       <c r="J67" t="s">
-        <v>446</v>
+        <v>512</v>
       </c>
       <c r="K67" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="L67" t="s">
-        <v>448</v>
+        <v>514</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="O67" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -5946,50 +6426,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>448</v>
+        <v>514</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>64848</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>136929</v>
+      </c>
+      <c r="C68" t="s">
+        <v>515</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>449</v>
+        <v>516</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>450</v>
+        <v>517</v>
       </c>
       <c r="J68" t="s">
-        <v>451</v>
+        <v>518</v>
       </c>
       <c r="K68" t="s">
-        <v>452</v>
+        <v>519</v>
       </c>
       <c r="L68" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="O68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="n">
@@ -6007,50 +6491,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>64848</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>136930</v>
+      </c>
+      <c r="C69" t="s">
+        <v>521</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>454</v>
+        <v>522</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>455</v>
+        <v>523</v>
       </c>
       <c r="J69" t="s">
-        <v>456</v>
+        <v>524</v>
       </c>
       <c r="K69" t="s">
-        <v>457</v>
+        <v>525</v>
       </c>
       <c r="L69" t="s">
-        <v>458</v>
+        <v>526</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="O69" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6070,50 +6558,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>458</v>
+        <v>526</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>64848</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>136931</v>
+      </c>
+      <c r="C70" t="s">
+        <v>527</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>459</v>
+        <v>528</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>460</v>
+        <v>529</v>
       </c>
       <c r="J70" t="s">
-        <v>461</v>
+        <v>530</v>
       </c>
       <c r="K70" t="s">
         <v>12</v>
       </c>
       <c r="L70" t="s">
-        <v>462</v>
+        <v>531</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="O70" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="n">
@@ -6131,50 +6623,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>462</v>
+        <v>531</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>64848</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>136932</v>
+      </c>
+      <c r="C71" t="s">
+        <v>532</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>463</v>
+        <v>533</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
+        <v>534</v>
+      </c>
+      <c r="J71" t="s">
+        <v>535</v>
+      </c>
+      <c r="K71" t="s">
+        <v>536</v>
+      </c>
+      <c r="L71" t="s">
+        <v>537</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
         <v>464</v>
       </c>
-      <c r="J71" t="s">
-        <v>465</v>
-      </c>
-      <c r="K71" t="s">
-        <v>466</v>
-      </c>
-      <c r="L71" t="s">
-        <v>467</v>
-      </c>
-      <c r="M71" t="n">
-        <v>5</v>
-      </c>
-      <c r="N71" t="s">
-        <v>405</v>
-      </c>
       <c r="O71" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -6188,50 +6684,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>468</v>
+        <v>538</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>64848</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>33830</v>
+      </c>
+      <c r="C72" t="s">
+        <v>539</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>469</v>
+        <v>540</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>470</v>
+        <v>541</v>
       </c>
       <c r="J72" t="s">
-        <v>471</v>
+        <v>542</v>
       </c>
       <c r="K72" t="s">
-        <v>472</v>
+        <v>543</v>
       </c>
       <c r="L72" t="s">
-        <v>473</v>
+        <v>544</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>474</v>
+        <v>545</v>
       </c>
       <c r="O72" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="n">
@@ -6251,50 +6751,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>475</v>
+        <v>546</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>64848</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>136933</v>
+      </c>
+      <c r="C73" t="s">
+        <v>547</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>476</v>
+        <v>548</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>477</v>
+        <v>549</v>
       </c>
       <c r="J73" t="s">
-        <v>478</v>
+        <v>550</v>
       </c>
       <c r="K73" t="s">
-        <v>479</v>
+        <v>551</v>
       </c>
       <c r="L73" t="s">
-        <v>480</v>
+        <v>552</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>474</v>
+        <v>545</v>
       </c>
       <c r="O73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -6308,7 +6812,7 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>480</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_247.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_247.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="481">
   <si>
     <t>STR#</t>
   </si>
@@ -147,10 +147,7 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Southernersdotravel</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/19/2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r576207644-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
@@ -180,18 +177,15 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>Perla M, Front Office Manager at Fairfield Inn &amp; Suites Dallas West / I-30, responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
+    <t>Perla M, Front Office Manager at Fairfield Inn &amp; Suites Dallas West / I-30, responded to this reviewResponded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2018</t>
   </si>
   <si>
     <t>I was in room 308 a room with a door bell for some reason and my stay was this past week. The walls are paper thin I could hear the person in the room above me constantly sounded like elephants going back and forth. When I call to the front desk to tell them he basically said nothing. Upon check in i had to repeat my self three times with my last name as he couldn't find me in the reservation even though all he had to do was pick up my id or credit card that I placed on the desk.After checking in he never advised me of any of the hotels offerings including breakfast. The room was clean and bed was firm.  The AC was stupid, I like the room cold and all i could do was put it on 65 degrees as it didn't let me go any further down and that really didn't keep the room cold plus it was loud when turning on or off. I want to say on Wednesday morning after breakfast I went to the front desk asked for the manager as they had trash pick up at 4:40 am that jolted me awake and I am sure everyone else.  I asked he why this happened so early instead of being concerned she told me that she couldn't change the time. Now I work in a industry where I know for a...I was in room 308 a room with a door bell for some reason and my stay was this past week. The walls are paper thin I could hear the person in the room above me constantly sounded like elephants going back and forth. When I call to the front desk to tell them he basically said nothing. Upon check in i had to repeat my self three times with my last name as he couldn't find me in the reservation even though all he had to do was pick up my id or credit card that I placed on the desk.After checking in he never advised me of any of the hotels offerings including breakfast. The room was clean and bed was firm.  The AC was stupid, I like the room cold and all i could do was put it on 65 degrees as it didn't let me go any further down and that really didn't keep the room cold plus it was loud when turning on or off. I want to say on Wednesday morning after breakfast I went to the front desk asked for the manager as they had trash pick up at 4:40 am that jolted me awake and I am sure everyone else.  I asked he why this happened so early instead of being concerned she told me that she couldn't change the time. Now I work in a industry where I know for a fact that they can change the time of pick up, she needs to go back to training to understand how to treat a quest her attitude was in the trash how she is the manager should be a concern to all.  The breakfast was good the coffee was horrible.  As a business traveler we stay in a lot of hotels a lot of us don't expect a lot but a clean room and a friendly staff and to be treated well. The front desk staff never would look up from their computers to say hello, good morning, how is your stay etc.  The only person who asked me about my stay and if everything was good was the maintenance man, I saw him every afternoon and he was the nicest person.  The owner of this place needs to retrain all of their staff on how to treat customers.  I will not stay here again and advise anyone that I know of not to do so as well.More</t>
   </si>
   <si>
-    <t>VirenHM</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r571079501-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -219,9 +213,6 @@
     <t>Stale breakfast and fruits. When asked for fresh fruits, manager said we don't have any. No sorry, nothing. Walls are paper thin. I kept hearing neighbors all night, toilets Flushing, loud TV. In my room the AC was loud. In my 9 years with Marriott, I've seldom seen such poor properties.I reminded the girl at front desk about the bonus points with my rate code at check-in and at checkout. Sher promised she'll get the manager to contact me. No points, no contact from the manager. I was not impressed by the service at all; not up to Marriott standards. I was given a handicap room at first, why? When I asked they said "no reason" and changed it!More</t>
   </si>
   <si>
-    <t>Necole</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r570291602-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -240,9 +231,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Russell_Ann</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r565263522-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -261,9 +249,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t>Ahsaki T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r548747683-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -288,9 +273,6 @@
     <t>First of all I will not recommend this hotel to anyone! I was greeted by Blessed who was absolutely amazing for trying her very best to make sure I was well taken care of. I checked into the hotel at 12 pm and was paying a set rate in cash. I then paid for my room and placed a card on file for incidentals only! Around 4 hours later I received another authorization on my card for another fee 3 times more than the rate of my room. I then talked to Anthony who was by far the most unprofessional individual I have ever encountered at a hotel. When I went down to the front desk he told me it was a discrepancy in my rate and it had been taken care of. What I didn't know was he authorized my card for more money other than what was only placed on file for incidentals without my knowledge and/or signature. I then provided paperwork verifying the rate I was supposed to receive but he was not budging. He lied repeatedly and told me he was the General Manager which he was not. I went back down this morning to talk to the  front desk clerk which happened to be Blessed again. She tried hard to take care of it and knew of the mistakes her co-worker had made. She was very apologetic of the situation and tried to fix it....First of all I will not recommend this hotel to anyone! I was greeted by Blessed who was absolutely amazing for trying her very best to make sure I was well taken care of. I checked into the hotel at 12 pm and was paying a set rate in cash. I then paid for my room and placed a card on file for incidentals only! Around 4 hours later I received another authorization on my card for another fee 3 times more than the rate of my room. I then talked to Anthony who was by far the most unprofessional individual I have ever encountered at a hotel. When I went down to the front desk he told me it was a discrepancy in my rate and it had been taken care of. What I didn't know was he authorized my card for more money other than what was only placed on file for incidentals without my knowledge and/or signature. I then provided paperwork verifying the rate I was supposed to receive but he was not budging. He lied repeatedly and told me he was the General Manager which he was not. I went back down this morning to talk to the  front desk clerk which happened to be Blessed again. She tried hard to take care of it and knew of the mistakes her co-worker had made. She was very apologetic of the situation and tried to fix it. Her General Manager refused to speak with me several times over the phone and in person repeatedly. I was also lied to about her being absent from work when she was right in the office. She told Blessed not to change anything. My card was over drafted a significant amount of money due to the ill mannered nuisances of Anthony and how he handled everything and I can't get that back. I have notified the corporate office and a case has been opened. I will not stop until this issue is resolved. I am very disappointed that this Fairfield Inn is not up to the Marriott standards.More</t>
   </si>
   <si>
-    <t>RMurray847</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r548684583-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -312,9 +294,6 @@
     <t>My son (age 30) and I stayed here in November, 2017 for 2 nights.  We were in town to see a Cowboys game (our first!) and this hotel was 1)  not too far from Love Field, 2) not too far from the Stadium, 3) far enough away from the stadium to still be very reasonably priced.  There isn't much right around the hotel, except some fast food places...but it's VERY convenient to the Interstate and for a sprawling metropolis like Dallas/Ft. Worth, it is not super close to anything, but not super far from anything either.  We made a good choice, overall, for our various activities.The place itself is nothing special, but there's nothing wrong.  Comfortable beds, decent TV, decent bathroom.  An above average breakfast buffet in a small but attractive lobby.  The hotel was full of football fans when we were there, but we never heard any rowdiness from our rooms.  If you're looking for reasonably priced, no-frills but no scares in a good location...I certainly recommend this place.  The Fairfield Inns fill a particular niche for inexpensive travel, and we had no issues with our choice.More</t>
   </si>
   <si>
-    <t>khugs16</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r547905232-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -333,9 +312,6 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>Ladii R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r544132721-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -360,9 +336,6 @@
     <t>I was offered a discount for my stay since the loud noise coming out of the mechanic room is unstoppable due to the AC functions. I don't need a discount. I don't need rewards. I need sleep. A full nights sleep as one should receive. Apparently according the Shmeka, the front desk clerk, this room has never reported  complaints however I just read one on here. So after she told me there was no more rooms, she said she would call me back to my room to.... I don't know what. It's been an hour and no call. Not only that, I have called 3 times to the front desk and no answer. If there is no more rooms available, then fine, I have no choice but to find a way to sleep through this noise I guess. However, she could atleast have the decency to keep her word and call me to perhaps just show that she made some type of effort in providing this so called "promise of the guest being satisfied". The hotel is nice. I'll give them that, but room 214 is not the room to be in and Shmeka needs to ask around what Fairfields #1 priority is. It's unbelievable how calm I have remained.More</t>
   </si>
   <si>
-    <t>LuisAMM</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r534603061-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -390,9 +363,6 @@
     <t>You will never check in before 3:00 PM and before employees shift change ! Too much noise in the room with the air conditioning ...The breakfast is good and the gym room very simple.Very early your check out will be at the door to ensure your way out and leave the room empty ... like they love ..More</t>
   </si>
   <si>
-    <t>1Longhorns</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r534035542-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -411,9 +381,6 @@
     <t>We arrived in the evening and Shameka checked us in. She was very friendly and very knowledgeable of the hotel. She explained what was available at the hotel at that hour and told us we were welcome to hang out in the lobby if we like. She explained breakfast, which included eggs, sausage, waffles along with fruits, pastries and oatmeal. I didn't grab one but there were USA Today newspapers for the taking. The outside and inside of the hotel was nice, clean and well maintained. There were places close by (5min away) to eat, mostly fast food and a Chili's. It has been a long time since I have stayed at a Fairfield Inn. If they are all this nice I will need to start looking at them when I travel. The next time we are in Dallas we will be staying here.More</t>
   </si>
   <si>
-    <t>Robin G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r530504951-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -429,9 +396,6 @@
     <t>I had the pleasure of staying here one night and was blown away by the customer service at the front desk by April. She was extremely nice and helpful. My room was roomy, clean, and bed was most comfortable. The breakfast was standard continental style such as other Fairfield Inn. There are some restaurants and food places less than a mile away and a Walmart very close. Enjoyed my stay and really liked the customer service.  Will definitely be coming back again.</t>
   </si>
   <si>
-    <t>Lowell N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r520759731-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -459,9 +423,6 @@
     <t>Stayed 2 nights for AdvoCare kickoff classic at at&amp;t field.  Room was clean, modern, and comfortable.  Free breakfast was good.  Typical spread minus bacon strips.  Convenient location outside of Dallas proper.  Would stay here again given price and football activities.More</t>
   </si>
   <si>
-    <t>Sallyken13</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r512598028-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -480,9 +441,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t>Kimmidolli</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r510977846-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -498,9 +456,6 @@
     <t>First hotel we stayed in when we arrived in the States from Australia.  We had read previous reviews and were looking forward to meeting Blessed.  She did not disappoint and we felt extremely welcome by her and other staff.  Just be careful to head to the correct North Cockrell Hill Rd.  Our GPS took us on a drive in the opposite direction (although lovely houses to look at along the way).  When we called to check the location we were advised that this happens to other people too.  Highly recommend.</t>
   </si>
   <si>
-    <t>Warrior44</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r496382033-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -519,9 +474,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t>Shane S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r495008681-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -537,9 +489,6 @@
     <t>This Fairfield is almost brand new and the staff was amazing. Blessed greeted us at the front desk, one of the best ! Very helpful and cordial. Darrin went out of his way to make sure my wife and another guest had white wine during the hospitality hour. He was very sincere in ensuring our stay was the best experience. Thanks you two!</t>
   </si>
   <si>
-    <t>Matt K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r494124324-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -555,9 +504,6 @@
     <t>The location of this hotel was extremely convenient as I was visiting both Fort Worth as well as Dallas. This hotel is basically brand new, so everything was still pristine. My room was quiet. I would stay here again in the future.</t>
   </si>
   <si>
-    <t>chevybb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r490086905-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -570,9 +516,6 @@
     <t>From the moment you walk in the door, this place feels great. It's new and clean; the staff was welcoming and the prices are good. Loved the spacious room layout and the beds were very comfortable. We used the pool and the fitness room. No complaints about this property, and a big thank you to Jennifer at the front desk.</t>
   </si>
   <si>
-    <t>Nathan B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r484655731-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -594,9 +537,6 @@
     <t>This hotel is relatively new so the facilities sparkle, almost as much as the staff.  Everyone we encountered was friendly, in particular Bliss at the front desk.  They had a lovely social hour the night we arrived, and breakfast each morning was bountiful and had lots of variety.  They even had veggie sausage one of the mornings, which was great for both my girlfriend and I. The gym was clean and always had clean towels and water.  There's always fresh coffee in the lobby and I was able to print our boarding passes in less than a minute from the business center.  The room itself was clean and quiet, and I appreciate the shower design where you can turn the water on and adjust the temperature without getting wet.  There's no restaurant at the hotel but there are plenty of food options walking distance, and the hotel has quick microwaveable food if you need it.  Wifi was free and problem-free.  I would stay here again without hesitation, they do a fantastic job!More</t>
   </si>
   <si>
-    <t>Carol55Travels</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r480247752-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -618,9 +558,6 @@
     <t>Located in a warehouse part of town, this new facility surprised us by upgrading to a suite that we were not aware was available at Fairfield's.  Our comfort level was high with the traditional comfortable Marriott bed, well appointed bathroom, TV that was good and easy to understand, and wonderfully high speed internet.  Complementary happy hour occurs on Tuesdays and Wednesdays and includes wine and beer, chicken bites, cheese and veggies with dip.  Complementary breakfast is the standard fare for Marriott and done well.  Front desk staff was very friendly and helpful and deserve kudos for being prepared with an extensive list of area restaurants categorized by cuisine ready to go.  That was very much appreciated as there are no restaurants in the immediate area.  No more than 20 minutes of travel in any direction brings a traveller extensive dining choices in Dallas and a chance to see a bit of the city in the process.  Very nice overnight experience in total.More</t>
   </si>
   <si>
-    <t>JKK123</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r476102813-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -636,9 +573,6 @@
     <t xml:space="preserve">Nice property. Only 1 year old so still fresh. Did not use gym or indoor pool but both appeared tidy &amp; nice. Had king suite &amp; room very clean. Bed was firm but decent. Pillows &amp; linens nice quality. Breakfast variety good (eggs/waffles/etc) &amp; coffee good &amp; very hot!Hotel convenient to freeway &amp; a block down from multiple gas stations, fast food, &amp; a Walmart. Only 10 min drive down freeway to downtown Dallas. No complaints a nice Marriott property. </t>
   </si>
   <si>
-    <t>Lee M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r474555666-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -657,9 +591,6 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t>Glenn C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r473258945-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -675,9 +606,6 @@
     <t>It's a new hotel, all the amenities are nice. It's tucked away from all the hustle and bustle but also gives you very easy access to so many restaurants and stores if necessary. With that said, the best part of the trip was Ms./Mrs. (Not sure which) Blessed. She was/is the bomb of a person. A sweet heart that helped from the moment I stepped in to the moment I walked out. I</t>
   </si>
   <si>
-    <t>Amy W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r470973459-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -705,9 +633,6 @@
     <t>The second night we stayed here, our Escalade SUV got stolen from the hotel parking lot. We were told after it got stolen that this area of Dallas is VERY unsafe. Looks are deceiving because the area looks new and nice. The hotel itself was very nice and clean. The hotel staff were AMAZING during the whole ordeal. They even called in an extra staff person to help deal with our situation. After the police got there, they reviewed the hotel's security cameras and it showed our SUV being stolen less than 10 mins after we arrived back to the hotel after having dinner nearby. The cop assumed we were followed back to the hotel. Had this not happened to us, I would rate a 5 however I hope anyone that is considering staying here reconsiders due to the extremely unsafe area it resides in! We paid over $900 for two rooms for 3 nights. Had we seen a review like this before, we NEVER would have stayed here!More</t>
   </si>
   <si>
-    <t>Chase P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r469654425-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -729,9 +654,6 @@
     <t>We checked in to this hotel at 12:30 AM and after completing the early check in procedure on my phone, still had to wait nearly five minutes and get out my credit card and drivers license in order to check in. This should be a thirty second process. I also called the hotel and confirmed I was on my way 3 hours before. Lastly, although the rest of the room appeared clean, a dirty towel was left behind our bathroom door. I reported this to the hotel and received managerial feedback within a few days. I was not thanked for my loyalty or given anything to remedy the situation. All that being said, I would give them another chance.More</t>
   </si>
   <si>
-    <t>Renee C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r469101616-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -750,9 +672,6 @@
     <t>The hotel was very nice,  but it was the staff that made it incredible.  A lot of times there is one awesome person at a hotel,  but every staff member here went out of their way to be extrodinary. Specifically though,  Chris was the epitome of above and beyond. My daughter got hurt in the elevator and I halfway expected a visit from a manager to sign some kind of waiver. Instead though,  Chris (who I believe does the laundry) who met my daughter at breakfast,  came up to check on her and then went out of his way to go and get her a toy to cheer her up.  Luckily,  my daughter was ok,  but if not for Chris, that experience might have marred our entire stay. This hotel is brand new, easy to get to,  and was modern but comfortable. We loved being able to sign into Netflix with our TV remote. We would absolutely stay here again. More</t>
   </si>
   <si>
-    <t>whooh43</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r462740881-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -771,9 +690,6 @@
     <t>I had a Great experience at the hotel the Customer Service Rep "Blessed" was a great help to me.. She assisted me, encouraged me constantly and greeted all of the guest with an enthusiastic attitude!! Great Experience!More</t>
   </si>
   <si>
-    <t>ryanlamasa</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r462108180-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -789,9 +705,6 @@
     <t xml:space="preserve">I am a loyal Marriott member and stay at several Marriott locations however the Fairfield Inn in Dallas W/I-30 has the best customer service I have ever experienced. I have to mention her by name as she is an extraordinary employee for Marriott stop in and experience what all guest should experience with their employee Blessed. I have never seen a more positive individual and she will put a smile on your face no matter what type of day you're having. I hope this location realizes what a gem they have in her. </t>
   </si>
   <si>
-    <t>Tha_Bearded_1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r456802965-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -807,9 +720,6 @@
     <t>Everything was great...!!.  The hotel is off the highway and next to a KFC and Sonic.  The area does have a lot of fast food restaurants in the area.  The Chili's is decent at best..  The internet speed is awesome at 61 mbps down and up loading.   I plan on coming back to stay here.</t>
   </si>
   <si>
-    <t>Magus M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r455741542-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -828,9 +738,6 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t>Mlbpafan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r450544654-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -852,9 +759,6 @@
     <t>I chose this hotel because of it's proximity to the Interstate and the rating.  I was not disappointed!  The property was extremely clean on arrival and the lobby was very nice as well.  You can tell this is a newer hotel and there is very limited traffic so the noise level is low.  The front desk person was very polite and got us checked in quickly.  The room was very nice and clean.  The TV was nice and new and the channels worked as they were supposed to.  The beds were very comfortable and the bathroom was clean and well-equipped.  The shower was nice and the hot water was quick!  The breakfast was very good and the breakfast staff was excellent!  They kept everything stocked and supplied.  The wi-fi was nice as well; fast and easy to connect to.  We will return to the hotel in the future and I have no problem recommending it to others.More</t>
   </si>
   <si>
-    <t>mnortiz03</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r448361871-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -873,9 +777,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t>Laura S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r445858566-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -891,9 +792,6 @@
     <t xml:space="preserve">Stayed at the Fairfield Inn  for the dallas cowboys game 8 miles from love field  and 9 miles from AT&amp;T  stadium . This is a new hotel with a great staff  and good room rates  and good location  will definitely stay again.  </t>
   </si>
   <si>
-    <t>Coach5000</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r443736723-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -912,9 +810,6 @@
     <t>I travel to Dallas on occasion, and always use Love Field and Southwest Airlines. I was looking for a hotel near Love, but not on top of it. I located this new Fairfield Inn, and it's only about 20 minutes from the airfield - perfect for me. Upon arrival, it's very obvious that the property is brand new as it is well appointed with modern decor, and it still shines like it opened just yesterday. As you might expect, the hotel is extremely clean and the sleep quality is good. The front desk staff was incredibly personable and professional during my stay, and helped me navigate the local area. The complimentary breakfast was OK, but nothing over the top. I have stayed here and at the neighboring Hampton Inn, and strongly suggest choosing the Fairfield as it is much nicer.More</t>
   </si>
   <si>
-    <t>Sandi J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r443189337-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -930,9 +825,6 @@
     <t xml:space="preserve">What a great hotel to stay at so glad my husband and I stayed here. They have the best employees and you can tell they enjoy thier jobs. Blessed is amazing at her job and was just amazing. I watched at breakfast the staff help a gal that had several younger kids with her, get cereal and breakfast. The room was very clean and loved the huge walk in shower. The whole staff went above and beyond to make us feel welcomed. Will stay again if we are in Dallas. </t>
   </si>
   <si>
-    <t>NOZRV</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r442656918-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -948,9 +840,6 @@
     <t>I was there for a couple of days for work and usually always try to stay at a Fairfield or similar.  Most time the free breakfast is pretty decent but not here.There was a large container of water with lemon slices in the lobby. I poured some in a cup and it was disgusting - it was warm, off-color, and sludgy tasting like it was days old.  The scrambled eggs smelled like dirty socks, needless to say I did not eat them.  The fresh fruit bowl had some old soggy fruit in it and a couple of the grapes had some white stuff on them like mold.</t>
   </si>
   <si>
-    <t>Carol W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r442048424-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -969,9 +858,6 @@
     <t>This entire staff is the quintessential example of customer service excellence. I wish I would have been aware enough to capture everyone's names, but in particular Jamila Carter and Blessed Jefferson went ABOVE and beyond to not only make us feel welcomed and appreciated but their friendliness and professionalism should be an example to the customer service industry. We are Gold Members, have frequented international Marriotts and are currently traveling across the country. This establishment is head and shoulders above the others!  This is our 8th night (fourth state) and we have been made to feel at home in Dallas. In a competitive hotel industry it is imperative that brands consistently strive to instill loyalty; this Fairfield Inn &amp; Suites by Marriott, Dallas West, further solidified our brand loyalty by giving us one of our best hotel experiences ever. We highly recommend this Marriott accommodation. Thank you!  More</t>
   </si>
   <si>
-    <t>Ricky B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r439378561-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -990,9 +876,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t>Odis R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r438176988-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1008,9 +891,6 @@
     <t>I used this marvelous hotel for my 6th Annual Texas Sk8 Fair Classic room block this year and I must say this is the best hotel we have ever used. All 60+ of our guest were absolutely pleased with the hospitality, friendly staff members and the cleanliness of the hotel. Everyone from the general manager to the property manager and all the staff were very knowledgeable of the hotel and all of its policies.Special thanks to Shontina, Blessed and Jermila.you ladies ROCK.THANK YOU FROM O.D. ROWLETT. WE WILL DEFINITELY SEE YOU ALL NEXT YEAR.</t>
   </si>
   <si>
-    <t>Mike B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r437922498-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1026,9 +906,6 @@
     <t>Very friendly staff, Manager's Reception on Tuesdays and Wednesdays, they understand hospitality and treat everyone as a valued guest. New property and I love the feather pillows. I'll definitely stay here whenever I'm in the area.</t>
   </si>
   <si>
-    <t>beforeman</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r436195795-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1044,9 +921,6 @@
     <t>Brand new hotel. Up to date furnishings. Clean. Loved the executive suite room. Comfortable  furniture. Nice lobby and eating area. Breakfast was better than your typical Fairfield. I really liked the free beer and munchies at happy hour. Staff was very, very friendly and helpful. Will be coming back here again when in the area.</t>
   </si>
   <si>
-    <t>Kristina R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r433249654-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1062,9 +936,6 @@
     <t>I have never felt so at home in a hotel in my life. A wonderful clean facility, great breakfast, and a very special staff. A lady named Blessed who works at the front desk is nothing short of a blessing! A woman full of joy. I am blessed to have met her and the other staff members. Highly recommend staying here while in Dallas! :)</t>
   </si>
   <si>
-    <t>kimclayborn</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r432288435-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1080,9 +951,6 @@
     <t>This is my second stay here. Each visit I was here for a week.  There is a lady at the desk name Blessed. She is a blessing. She is so kind. She speaks every time she sees someone. Always pleasant. Each time I come in with my hands full she gets the elevator for me.  She is so pleasant. I look forward to seeing her when I visit</t>
   </si>
   <si>
-    <t>Banffflyr</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r432111065-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1095,9 +963,6 @@
     <t>Nice new place with great rooms and clean common areas . Location is the low point as it's in between an Interstate and an industrial neighborhood. Uber and Lyft to downtown about $10. There are some local restaurants in the area but no other life to speak of. Wouldn't stay here without a car.</t>
   </si>
   <si>
-    <t>gangstas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r428964455-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1113,9 +978,6 @@
     <t xml:space="preserve">Just want to keep short a pleasant relaxing trip to Dallas tx Fairfield inn. It all starts with a woman her name is BLESSED. She is very professional and patient she greets you as soon as u walk in building like u just arrived home away from home she also accomadates your every need. </t>
   </si>
   <si>
-    <t>760angelaw</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r428834667-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1128,9 +990,6 @@
     <t>The entire stay at this hotel was perfect.  The front desk staff was outstanding! The hotel is beautiful and modern! There were a lot of guests there the weekend I traveled for a skating event but each guest was treated like they were no. 1.If I had a choice, I would box this hotel up, staff included, and bring them with me to each state I visit!  Jamila, the front desk agent went above and beyond.  Anyone visiting the Dallas area, you get all the amenities of a pricey hotel at a fraction of the cost staying here.  Highly recommended!!!</t>
   </si>
   <si>
-    <t>awatkinsmes</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r427274292-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1149,9 +1008,6 @@
     <t>The overall experience for this hotel can be summed up in one word Blessed. If you have a choice of a hotel in Dallas please visit this one, not only is it new but the staff is amazing. Blessed was there from the moment we walked in the door, she greeted us each time with a smile and hello. The first day we checked in we came straight from the airport where my bag never arrived, we inquired if we could check in early, we were not able to be Blessed showed me to the bathroom where I could at least freshen up and feel a little better about the situation. We stayed for one night and traveled out of the area, upon our return 3 days later again Blessed greeted us with a big smile and this time a hug! Unbelievable that she remembered us after all of the people that came through. Again I can not say enough about this wonderful lady who said her goal is to make sure everyone is treated the same way she would want to be treated. Please go see Blessed and make sure she knows how special she is!!More</t>
   </si>
   <si>
-    <t>awdivv</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r426718611-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1176,9 +1032,6 @@
     <t>Why pay a extra fee for nightly parking at a downtown hotel when this hotel is new, clean and right next to downtown. Hotel staff during our stay was very nice and accommodating. The only drawback I would say is not with the hotel but with Dallas traffic.More</t>
   </si>
   <si>
-    <t>Josh J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r424770659-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1197,9 +1050,6 @@
     <t>First off, I am a platinum rewards member with 130 nights in Marriott hotels so far this year. With that being said, this is by far the best Fairfield inn I have every stayed in. This Fairfield inn has a beautiful new building, with staff that strives to go the extra mile. They have a state of the art, roomy gym and warm breakfast every morning. Being 15 minutes away from downtown Dallas makes it at an exceptionally convenient location. The manager Shontina has a wealth of knowledge and experience. She has a huge network in the local area so if you have any questions she is the lady with the know how.More</t>
   </si>
   <si>
-    <t>Namsh26</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r424285377-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1221,9 +1071,6 @@
     <t>This is a great place with upscale look. Rooms were clean..all staff is very friendly and helpful.  Walmart and many restaurants around the place. Spacious and clean rooms, Well equipped gym, swimming pool etc make it a good choice to stay.More</t>
   </si>
   <si>
-    <t>Ida K B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r422247663-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1242,9 +1089,6 @@
     <t>We were in Mansfield for a friend's wedding and met up with our grown children.  The hotel was easy to locate, very clean, and our bed was comfortable.  The continental breakfast included with our stay was exceptional with good variety and quality food products, tasty, handled correctly, and the hostess was probably the nicest we have encountered at any hotel breakfast.  The only drawback was that we arrived on a busy Friday afternoon at 4:15 pm and our room was not ready until 5:15 pm, possibly because they had two different wedding parties arriving that day.More</t>
   </si>
   <si>
-    <t>Susan Elizabeth H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r417261155-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1266,9 +1110,6 @@
     <t>I have been staying at this hotel since the beginning on June and wouldn't dream of staying anywhere else.  I love the staff of this hotel.  With all of the travel I have done, I have never stayed anywhere that had such an overall amazing staff.  I absolutely love the following staff members: Blessed, Chris, Jorge, Jamila and Harmony!  These 5 individuals are fantastic and feel like family to me.  They greet me with a hug every time I walk through the doors.  They treat all of their guests as though there is nothing they wouldn't do for them!  Aaron, the Manager is also fantastic and has hired an amazing team.  As a business woman, I can certainly attest to the fact that it is not always easy to get the best.....Aaron  did.  To the owner of the hotel, please take good care of this team, including their pay,  as they are taking excellent care of you by taking excellent care of the guests!  There isn't a lot of difference between hotel rooms at this level.  The staff makes all the difference in the world.  They are the reason I return every week! Thank you!More</t>
   </si>
   <si>
-    <t>Skip B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r411730325-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1284,9 +1125,6 @@
     <t>I stay in over 150 Marriott nights a year and I can't wait to come back to this one. I hope when you come to stay that Blessed is working. She will brighten your day every time you see her. She makes this place amazing!! Of course the hotel is great but WOW!!! Great job Blessed. Thanks for the great stay!!</t>
   </si>
   <si>
-    <t>Mike P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r406670695-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1300,9 +1138,6 @@
   </si>
   <si>
     <t>I travel almost weekly and it's amazing how construction quality of chain hotels differs. Many of the newer Marriott properties are much more soundproof than the older ones. However, this brand new Fairfield seems to have almost no soundproofing an you can clearly hear a normal conversation in your neighboring rooms. Otherwise, very good stay. Friendly staff, good free breakfast and loved having a newer treadmill that wasn't missing pieces like many other hotels.</t>
-  </si>
-  <si>
-    <t>nowincolorado</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r402256086-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
@@ -1342,9 +1177,6 @@
 What I did not find peaceful were the neighbors in the room next to me.  They played music that I could hear through the wall.  It sounded like there was a baby grand piano right on the other...This hotel was "ok"Check in was fine.  Hotel was clean.  Room was nice but it had the longest entryway into a room I have ever seen in any hotel!  It was like a hallway - see photo.  In the photo, that is a mirror on the left side, not another room - it is just the reflection.  On the right side is the bathroom and kitchenette area.  The entryway was so long, I think a twin bed could have fit there!I think it's such a long entryway to so you wouldn't hear as much hallway noise in your room.  There was also no tub, just a shower.  See photo.I asked for a quiet room and was shocked to find out they placed me right next to the ice machine which made a high pitched noise. It could be heard from the hallway but thankfully not in my room.However, there was outside noise that could be heard in my room and it started about an hour after I was there - it sounded like I was next to the hotel's A/C unit.  But I found the constant motor noise was rather peaceful - like white noise in the background.What I did not find peaceful were the neighbors in the room next to me.  They played music that I could hear through the wall.  It sounded like there was a baby grand piano right on the other side of the wall!  Followed by a set of drums.  I don't think the music was loud, I think the walls just weren't very soundproof.Breakfast was a bit surprising.  I travel a lot and have never seen such a sparse selection for breakfast.  I am not taking about variety but about quantity.  I was there early and there were only two other guests so it wasn't that the food ran out, it simply wasn't available.  For instance - there were 4 yogurts in the frig.  Not 4 flavors - just 4 containers of yogurts in the mostly empty refrigerator.  I wanted salt &amp; pepper for my eggs.  There were no packets.  There were none on the tables.  There was one pepper and one salt shaker for the entire dining room to share.  Things like that just made me think they were being skimpy at breakfast.Avoid the eggs.  I took one bite and spit them out.  They were hot and had good texture and color but literally tasted exactly like rotten eggs smell!  Not good.It was an ok hotel.  I had an early morning conference is why I stayed here.  I am not sure I would stay here again due to it not being totally quiet and the breakfast left much to be desired.  But if I had to, I could handle another night.  So really, it was just ok so I gave it an average rating.More</t>
   </si>
   <si>
-    <t>kmcangl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r400603318-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1363,9 +1195,6 @@
     <t>The hotel and staff are amazing. The rooms are clean, the staff works hard to make sure you are enjoying your stay and they are there to help whenever they can. The location provides easy access to both dallas and fort worth and everything in between. More</t>
   </si>
   <si>
-    <t>Dcartermn</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r399380521-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1384,9 +1213,6 @@
     <t>We've completed half of our two week stay here. I can't say enough good things about the wonderful staff, the cleanliness,  the yummy continental breakfast and everyone is so friendly! Looking forward to another fabulous week here! I highly recommend staying here!More</t>
   </si>
   <si>
-    <t>Jason H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r396387362-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1402,9 +1228,6 @@
     <t>Newly built hotel, clean facilities, friendly staff and situated in a safe neighborhood that is convenient to both Dallas and Arlington's most popular attractions.  Will certainly be back for another stay during out next trip to the metroplex.</t>
   </si>
   <si>
-    <t>Brenette</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r395684091-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1432,9 +1255,6 @@
     <t>Wonderful to stayin a hotel that is so very very new. It was squeaky clean , the hotel staff cheerful and accommodating and location is only a short trip into the city. The rooms just smelt so fresh and inviting. We just loved our stay here and wished it could have been more than just the one night.More</t>
   </si>
   <si>
-    <t>huttnutt42</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r393756797-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1453,9 +1273,6 @@
     <t>Can't say enough about the customer service.Blessed was accommodating and helpful in every way. She went out of her way to make sure we were comfortable and had everything we needed. Thanks Blessed and Fairfield inn.More</t>
   </si>
   <si>
-    <t>JESALAZ</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r388737272-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1480,9 +1297,6 @@
     <t>New hotel builded 3- 4 months. Nice and comfortable, small indoor pool, no spa. Good complementary full breakfast Buffett. The hotel needs to start paying attention to the detail, they are missing removing the trash from the garbage cans &amp; replacing the coffee. Nothing is around the hotel. There is a Walmart and restaurants close by, 2 min away driving. I would not suggest walking, the area does not feel safe.More</t>
   </si>
   <si>
-    <t>KidInfiniti</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r384014517-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1498,9 +1312,6 @@
     <t>We stayed here while in town for a concert.  Hotel was new and very clean.  Outstanding customer service from check in to checkout.  Hotel is in great location near I30 within short drive to at&amp;t stadium.We enjoyed our stay and will return later this year.  Free wifi and parking as usual.</t>
   </si>
   <si>
-    <t>Stephen P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r383455248-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1519,9 +1330,6 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t>Sheila R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r381244180-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1537,9 +1345,6 @@
     <t>New hotel. Great service, especially friendly &amp; helpful was Blessed, the front receptionist. Hot breakfast. I highly recommend this hotel next time you are visiting Dallas.  Fitness room and indoor pool. Convenient to many businesses, right off the interstate.</t>
   </si>
   <si>
-    <t>dreskee</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r380376592-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1555,9 +1360,6 @@
     <t>This is a very new hotel. Opened in March 2016. Staff was great. We landed at 9:30 AM and took a chance on calling hotel to see if we could check in that early. We expected to hear that rooms were not available, but to our surprise the nice gentleman who answered the phone said we could come on in. We told him we would be there in 15 minutes and he had the breakfast staff leave food out for us even though the morning breakfast hour was over. Rooms were very clean and quiet. A lot of restaurants around hotel also.  Would definitely stay here again!!!</t>
   </si>
   <si>
-    <t>ZaidaStan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r378459155-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1573,9 +1375,6 @@
     <t xml:space="preserve">What else can I say? Located in a quiet suburb of Dallas, this hotel is close to everything one could want. It's brand new and very modern. The staff is soooo friendly and helpful. We were offered a room upgrade without having to ask for one. The breakfast area is clean, spacious, and very accessible. The hot breakfast is a good start to one's day. I will definitely recommend this property and will definitely return next time I'm in Dallas. </t>
   </si>
   <si>
-    <t>MadameD677</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r375219093-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1591,9 +1390,6 @@
     <t>The hotel was conveniently located and very clean.  The staff was very nice and accommodating.  I thought the bed was too hard for my taste and the breakfast ran low on most days.  I would stay there again though.</t>
   </si>
   <si>
-    <t>flyingtoday73</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r373847595-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1609,9 +1405,6 @@
     <t>This happens to be a brand new hotel.  I think the manager said 1 month old.  The staff was incredible.  They were very busy, the breakfast was nice and I really liked the gym. The room was very nice.  I enjoy blackout curtains and this place had the right size to make the room dark.  The TV was really nice.  They have Netflix built in to the TV.  I have only seen that at high end hotels.</t>
   </si>
   <si>
-    <t>mamabear122016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r373523165-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1624,9 +1417,6 @@
     <t>Nice, new facility. Very clean. Wonderful staff. Excellent breakfast. It was easy access off of I-30. Plenty of restaurants close by. Only 6-10 minutes from the Kay Bailey Hutchison Convention Center. A good value for your money.</t>
   </si>
   <si>
-    <t>Allen U</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r369589739-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1645,9 +1435,6 @@
     <t>Booked this hotel for it being a new Fairfield Inn &amp; Suites which is a first for me however I enjoy Marriotts comfortable beds and I'm no stranger to the Fairfield chain of hotels. This hotel is located near Walmart and many restaurants along IH 30 and is only 10 minutes away from downtown Dallas and about 10 minutes from Arlington for the Rangers game. The hotel is very modern, staff is very courteous and attentive and room was spotless. If your an Elite Marriott Rewards member your given a free available upgrade to a suite all at no additional cost which was a plus for my stay. The a/c was a bit noisy, everything else in the room was perfect with their comfortable beds however their closet space was limited. Breakfast was average for Fairfield Inn hotel standards, indoor pool is small but the fitness gym is spacious with three treadmills and weights and filtered water dispenser inside. Overall, I highly recommend this hotel for their prompt service, clean rooms, and courteous staff, will consider on my next Dallas adventure. More</t>
   </si>
   <si>
-    <t>SeniorTraveler65575</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r369392598-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1667,9 +1454,6 @@
   </si>
   <si>
     <t>This is a one-month old new hotel just off Interstate 30 on Cockrell Hill Road.  We spent the last night of our vacation here.  The hotel has the "new" smell, very nice,  Check-in was good and the lobby is new and nice.  Our room had 2 queen beds, desk, 2 chairs, flat screen TV, fridge &amp; microwave and was a good size.  Everything was clean as you would expect with a new hotel.  Breakfast was very good with hot food and many other items to choose.  Parking was easy.  The location is near downtown Dallas, it is a nice area with a few restaurants close such as Chili's and Golden Corral.  The only negatives would be there was only 1 regular coffee and 1 decaf coffee in our room, should have been 2 of each, not a problem since there was coffee in the lobby.  There was no luggage rack for our suitcases.  The wi-fi was not very good.  The trash can outside the entrance was full and unsightly, needed to be dumped.  These were mostly minor issues which can be corrected, it was nice to stay at a new hotel, not often you can enjoy new carpet smell.More</t>
-  </si>
-  <si>
-    <t>Cliffye B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d10172958-r368602847-Fairfield_Inn_Suites_Dallas_West_I_30-Dallas_Texas.html</t>
@@ -2189,47 +1973,43 @@
       <c r="A2" t="n">
         <v>64848</v>
       </c>
-      <c r="B2" t="n">
-        <v>136888</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -2247,60 +2027,56 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64848</v>
       </c>
-      <c r="B3" t="n">
-        <v>136889</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" t="s">
-        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2312,60 +2088,56 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
         <v>64</v>
-      </c>
-      <c r="X3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64848</v>
       </c>
-      <c r="B4" t="n">
-        <v>136890</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>69</v>
-      </c>
-      <c r="J4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" t="s">
-        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -2385,54 +2157,50 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64848</v>
       </c>
-      <c r="B5" t="n">
-        <v>136891</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
         <v>75</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" t="s">
-        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2446,54 +2214,50 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64848</v>
       </c>
-      <c r="B6" t="n">
-        <v>136892</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
         <v>81</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2507,54 +2271,50 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64848</v>
       </c>
-      <c r="B7" t="n">
-        <v>76660</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2574,54 +2334,50 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64848</v>
       </c>
-      <c r="B8" t="n">
-        <v>136893</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2635,54 +2391,50 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64848</v>
       </c>
-      <c r="B9" t="n">
-        <v>136894</v>
-      </c>
-      <c r="C9" t="s">
-        <v>105</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2694,60 +2446,56 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="X9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64848</v>
       </c>
-      <c r="B10" t="n">
-        <v>136895</v>
-      </c>
-      <c r="C10" t="s">
-        <v>114</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2759,60 +2507,56 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="X10" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64848</v>
       </c>
-      <c r="B11" t="n">
-        <v>51167</v>
-      </c>
-      <c r="C11" t="s">
-        <v>124</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="O11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2830,54 +2574,50 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>64848</v>
       </c>
-      <c r="B12" t="n">
-        <v>17504</v>
-      </c>
-      <c r="C12" t="s">
-        <v>131</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="O12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2891,54 +2631,50 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>64848</v>
       </c>
-      <c r="B13" t="n">
-        <v>136896</v>
-      </c>
-      <c r="C13" t="s">
-        <v>137</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2950,60 +2686,56 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="X13" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="Y13" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>64848</v>
       </c>
-      <c r="B14" t="n">
-        <v>136897</v>
-      </c>
-      <c r="C14" t="s">
-        <v>147</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="O14" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3021,54 +2753,50 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>64848</v>
       </c>
-      <c r="B15" t="n">
-        <v>136898</v>
-      </c>
-      <c r="C15" t="s">
-        <v>154</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="J15" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="L15" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="O15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3086,54 +2814,50 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>64848</v>
       </c>
-      <c r="B16" t="n">
-        <v>136899</v>
-      </c>
-      <c r="C16" t="s">
-        <v>160</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="O16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3147,54 +2871,50 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>64848</v>
       </c>
-      <c r="B17" t="n">
-        <v>44653</v>
-      </c>
-      <c r="C17" t="s">
-        <v>167</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="L17" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="O17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3208,54 +2928,50 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>64848</v>
       </c>
-      <c r="B18" t="n">
-        <v>2995</v>
-      </c>
-      <c r="C18" t="s">
-        <v>173</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="O18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3269,54 +2985,50 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>64848</v>
       </c>
-      <c r="B19" t="n">
-        <v>136900</v>
-      </c>
-      <c r="C19" t="s">
-        <v>179</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="K19" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="L19" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="O19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3336,54 +3048,50 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>64848</v>
       </c>
-      <c r="B20" t="n">
-        <v>37569</v>
-      </c>
-      <c r="C20" t="s">
-        <v>184</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="J20" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="K20" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="L20" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="O20" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3397,54 +3105,50 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>64848</v>
       </c>
-      <c r="B21" t="n">
-        <v>20884</v>
-      </c>
-      <c r="C21" t="s">
-        <v>192</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="J21" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="K21" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="L21" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="O21" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3462,54 +3166,50 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>64848</v>
       </c>
-      <c r="B22" t="n">
-        <v>136901</v>
-      </c>
-      <c r="C22" t="s">
-        <v>200</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="J22" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="K22" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="O22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3523,54 +3223,50 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>64848</v>
       </c>
-      <c r="B23" t="n">
-        <v>7440</v>
-      </c>
-      <c r="C23" t="s">
-        <v>206</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="J23" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="K23" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="L23" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -3590,54 +3286,50 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>64848</v>
       </c>
-      <c r="B24" t="n">
-        <v>43223</v>
-      </c>
-      <c r="C24" t="s">
-        <v>213</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="J24" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="K24" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="L24" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3657,54 +3349,50 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>64848</v>
       </c>
-      <c r="B25" t="n">
-        <v>30135</v>
-      </c>
-      <c r="C25" t="s">
-        <v>219</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="J25" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="K25" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="L25" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="O25" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3716,60 +3404,56 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="X25" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="Y25" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>64848</v>
       </c>
-      <c r="B26" t="n">
-        <v>48336</v>
-      </c>
-      <c r="C26" t="s">
-        <v>229</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="J26" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="K26" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="L26" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="O26" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3785,60 +3469,56 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="X26" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="Y26" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>64848</v>
       </c>
-      <c r="B27" t="n">
-        <v>15397</v>
-      </c>
-      <c r="C27" t="s">
-        <v>237</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="J27" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="K27" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="O27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3850,60 +3530,56 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="X27" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="Y27" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>64848</v>
       </c>
-      <c r="B28" t="n">
-        <v>136902</v>
-      </c>
-      <c r="C28" t="s">
-        <v>244</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="J28" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="K28" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="L28" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3921,60 +3597,56 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="X28" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="Y28" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>64848</v>
       </c>
-      <c r="B29" t="n">
-        <v>136903</v>
-      </c>
-      <c r="C29" t="s">
-        <v>251</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="J29" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="K29" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="L29" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3988,54 +3660,50 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>64848</v>
       </c>
-      <c r="B30" t="n">
-        <v>136904</v>
-      </c>
-      <c r="C30" t="s">
-        <v>257</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="J30" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="K30" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -4055,54 +3723,50 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>64848</v>
       </c>
-      <c r="B31" t="n">
-        <v>136905</v>
-      </c>
-      <c r="C31" t="s">
-        <v>263</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="J31" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="K31" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="L31" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4120,54 +3784,50 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>64848</v>
       </c>
-      <c r="B32" t="n">
-        <v>19919</v>
-      </c>
-      <c r="C32" t="s">
-        <v>270</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="J32" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="K32" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="O32" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4187,54 +3847,50 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>64848</v>
       </c>
-      <c r="B33" t="n">
-        <v>136906</v>
-      </c>
-      <c r="C33" t="s">
-        <v>278</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="J33" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="K33" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="L33" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="O33" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4248,54 +3904,50 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>64848</v>
       </c>
-      <c r="B34" t="n">
-        <v>12822</v>
-      </c>
-      <c r="C34" t="s">
-        <v>285</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="J34" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="K34" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="L34" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="O34" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4309,54 +3961,50 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>64848</v>
       </c>
-      <c r="B35" t="n">
-        <v>136907</v>
-      </c>
-      <c r="C35" t="s">
-        <v>291</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="J35" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="K35" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="L35" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4376,54 +4024,50 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>64848</v>
       </c>
-      <c r="B36" t="n">
-        <v>136908</v>
-      </c>
-      <c r="C36" t="s">
-        <v>298</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="J36" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="K36" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="L36" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="O36" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4437,54 +4081,50 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>64848</v>
       </c>
-      <c r="B37" t="n">
-        <v>136909</v>
-      </c>
-      <c r="C37" t="s">
-        <v>304</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="J37" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="K37" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="L37" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P37" t="n">
         <v>2</v>
@@ -4504,54 +4144,50 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>64848</v>
       </c>
-      <c r="B38" t="n">
-        <v>29488</v>
-      </c>
-      <c r="C38" t="s">
-        <v>310</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="J38" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="K38" t="s">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="L38" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="O38" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4565,54 +4201,50 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>64848</v>
       </c>
-      <c r="B39" t="n">
-        <v>15251</v>
-      </c>
-      <c r="C39" t="s">
-        <v>317</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="J39" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="K39" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="L39" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="O39" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4626,54 +4258,50 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>64848</v>
       </c>
-      <c r="B40" t="n">
-        <v>136910</v>
-      </c>
-      <c r="C40" t="s">
-        <v>324</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="J40" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="K40" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="L40" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="O40" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4687,54 +4315,50 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>64848</v>
       </c>
-      <c r="B41" t="n">
-        <v>2674</v>
-      </c>
-      <c r="C41" t="s">
-        <v>330</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="J41" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="K41" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="L41" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4748,54 +4372,50 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>64848</v>
       </c>
-      <c r="B42" t="n">
-        <v>136911</v>
-      </c>
-      <c r="C42" t="s">
-        <v>336</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="J42" t="s">
-        <v>339</v>
+        <v>298</v>
       </c>
       <c r="K42" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="L42" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4809,54 +4429,50 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>64848</v>
       </c>
-      <c r="B43" t="n">
-        <v>2067</v>
-      </c>
-      <c r="C43" t="s">
-        <v>342</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="J43" t="s">
-        <v>345</v>
+        <v>303</v>
       </c>
       <c r="K43" t="s">
-        <v>346</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s">
-        <v>347</v>
+        <v>305</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="O43" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4870,54 +4486,50 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>347</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>64848</v>
       </c>
-      <c r="B44" t="n">
-        <v>136912</v>
-      </c>
-      <c r="C44" t="s">
-        <v>348</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="J44" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="K44" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="L44" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4935,54 +4547,50 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>64848</v>
       </c>
-      <c r="B45" t="n">
-        <v>136913</v>
-      </c>
-      <c r="C45" t="s">
-        <v>354</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="J45" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="K45" t="s">
-        <v>357</v>
+        <v>313</v>
       </c>
       <c r="L45" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4996,54 +4604,50 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>64848</v>
       </c>
-      <c r="B46" t="n">
-        <v>136914</v>
-      </c>
-      <c r="C46" t="s">
-        <v>359</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="J46" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="K46" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="L46" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5057,54 +4661,50 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>64848</v>
       </c>
-      <c r="B47" t="n">
-        <v>136915</v>
-      </c>
-      <c r="C47" t="s">
-        <v>365</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
       <c r="J47" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="K47" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="L47" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="O47" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -5124,54 +4724,50 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>64848</v>
       </c>
-      <c r="B48" t="n">
-        <v>136916</v>
-      </c>
-      <c r="C48" t="s">
-        <v>370</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="J48" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="K48" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="L48" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="O48" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5189,54 +4785,50 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>376</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>64848</v>
       </c>
-      <c r="B49" t="n">
-        <v>136917</v>
-      </c>
-      <c r="C49" t="s">
-        <v>377</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="J49" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="K49" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="L49" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="O49" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5252,60 +4844,56 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="X49" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="Y49" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>64848</v>
       </c>
-      <c r="B50" t="n">
-        <v>12988</v>
-      </c>
-      <c r="C50" t="s">
-        <v>386</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="J50" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="K50" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="L50" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5317,60 +4905,56 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="X50" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="Y50" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>64848</v>
       </c>
-      <c r="B51" t="n">
-        <v>136918</v>
-      </c>
-      <c r="C51" t="s">
-        <v>393</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>394</v>
+        <v>344</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="J51" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="K51" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
       <c r="L51" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5382,60 +4966,56 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="X51" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="Y51" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>64848</v>
       </c>
-      <c r="B52" t="n">
-        <v>136919</v>
-      </c>
-      <c r="C52" t="s">
-        <v>401</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>402</v>
+        <v>351</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>403</v>
+        <v>352</v>
       </c>
       <c r="J52" t="s">
-        <v>404</v>
+        <v>353</v>
       </c>
       <c r="K52" t="s">
-        <v>405</v>
+        <v>354</v>
       </c>
       <c r="L52" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="O52" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5451,60 +5031,56 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="X52" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="Y52" t="s">
-        <v>407</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>64848</v>
       </c>
-      <c r="B53" t="n">
-        <v>136920</v>
-      </c>
-      <c r="C53" t="s">
-        <v>408</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>409</v>
+        <v>357</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>410</v>
+        <v>358</v>
       </c>
       <c r="J53" t="s">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="K53" t="s">
-        <v>412</v>
+        <v>360</v>
       </c>
       <c r="L53" t="s">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>414</v>
+        <v>362</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5522,54 +5098,50 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>415</v>
+        <v>363</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>64848</v>
       </c>
-      <c r="B54" t="n">
-        <v>136921</v>
-      </c>
-      <c r="C54" t="s">
-        <v>416</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>417</v>
+        <v>364</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>418</v>
+        <v>365</v>
       </c>
       <c r="J54" t="s">
-        <v>419</v>
+        <v>366</v>
       </c>
       <c r="K54" t="s">
-        <v>420</v>
+        <v>367</v>
       </c>
       <c r="L54" t="s">
-        <v>421</v>
+        <v>368</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>414</v>
+        <v>362</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5583,54 +5155,50 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>421</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>64848</v>
       </c>
-      <c r="B55" t="n">
-        <v>7005</v>
-      </c>
-      <c r="C55" t="s">
-        <v>422</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>423</v>
+        <v>369</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>424</v>
+        <v>370</v>
       </c>
       <c r="J55" t="s">
-        <v>425</v>
+        <v>371</v>
       </c>
       <c r="K55" t="s">
-        <v>426</v>
+        <v>372</v>
       </c>
       <c r="L55" t="s">
-        <v>427</v>
+        <v>373</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>414</v>
+        <v>362</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5650,54 +5218,50 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>427</v>
+        <v>373</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>64848</v>
       </c>
-      <c r="B56" t="n">
-        <v>136922</v>
-      </c>
-      <c r="C56" t="s">
-        <v>428</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>429</v>
+        <v>374</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>430</v>
+        <v>375</v>
       </c>
       <c r="J56" t="s">
-        <v>431</v>
+        <v>376</v>
       </c>
       <c r="K56" t="s">
-        <v>432</v>
+        <v>377</v>
       </c>
       <c r="L56" t="s">
-        <v>433</v>
+        <v>378</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>434</v>
+        <v>379</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -5715,60 +5279,56 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>435</v>
+        <v>380</v>
       </c>
       <c r="X56" t="s">
-        <v>436</v>
+        <v>381</v>
       </c>
       <c r="Y56" t="s">
-        <v>437</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>64848</v>
       </c>
-      <c r="B57" t="n">
-        <v>136923</v>
-      </c>
-      <c r="C57" t="s">
-        <v>438</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>439</v>
+        <v>383</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>440</v>
+        <v>384</v>
       </c>
       <c r="J57" t="s">
-        <v>441</v>
+        <v>385</v>
       </c>
       <c r="K57" t="s">
-        <v>442</v>
+        <v>386</v>
       </c>
       <c r="L57" t="s">
-        <v>443</v>
+        <v>387</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>434</v>
+        <v>379</v>
       </c>
       <c r="O57" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -5780,60 +5340,56 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>435</v>
+        <v>380</v>
       </c>
       <c r="X57" t="s">
-        <v>436</v>
+        <v>381</v>
       </c>
       <c r="Y57" t="s">
-        <v>444</v>
+        <v>388</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>64848</v>
       </c>
-      <c r="B58" t="n">
-        <v>136924</v>
-      </c>
-      <c r="C58" t="s">
-        <v>445</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>446</v>
+        <v>389</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>447</v>
+        <v>390</v>
       </c>
       <c r="J58" t="s">
-        <v>448</v>
+        <v>391</v>
       </c>
       <c r="K58" t="s">
-        <v>449</v>
+        <v>392</v>
       </c>
       <c r="L58" t="s">
-        <v>450</v>
+        <v>393</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>434</v>
+        <v>379</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -5845,60 +5401,56 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>435</v>
+        <v>380</v>
       </c>
       <c r="X58" t="s">
-        <v>436</v>
+        <v>381</v>
       </c>
       <c r="Y58" t="s">
-        <v>451</v>
+        <v>394</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>64848</v>
       </c>
-      <c r="B59" t="n">
-        <v>15527</v>
-      </c>
-      <c r="C59" t="s">
-        <v>452</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>453</v>
+        <v>395</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I59" t="s">
-        <v>454</v>
+        <v>396</v>
       </c>
       <c r="J59" t="s">
-        <v>455</v>
+        <v>397</v>
       </c>
       <c r="K59" t="s">
-        <v>456</v>
+        <v>398</v>
       </c>
       <c r="L59" t="s">
-        <v>457</v>
+        <v>399</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>434</v>
+        <v>379</v>
       </c>
       <c r="O59" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -5912,54 +5464,50 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>457</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>64848</v>
       </c>
-      <c r="B60" t="n">
-        <v>136925</v>
-      </c>
-      <c r="C60" t="s">
-        <v>458</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>459</v>
+        <v>400</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I60" t="s">
-        <v>460</v>
+        <v>401</v>
       </c>
       <c r="J60" t="s">
-        <v>461</v>
+        <v>402</v>
       </c>
       <c r="K60" t="s">
-        <v>462</v>
+        <v>403</v>
       </c>
       <c r="L60" t="s">
-        <v>463</v>
+        <v>404</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>464</v>
+        <v>405</v>
       </c>
       <c r="O60" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -5975,60 +5523,56 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>465</v>
+        <v>406</v>
       </c>
       <c r="X60" t="s">
-        <v>466</v>
+        <v>407</v>
       </c>
       <c r="Y60" t="s">
-        <v>467</v>
+        <v>408</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>64848</v>
       </c>
-      <c r="B61" t="n">
-        <v>136926</v>
-      </c>
-      <c r="C61" t="s">
-        <v>468</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>469</v>
+        <v>409</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I61" t="s">
-        <v>470</v>
+        <v>410</v>
       </c>
       <c r="J61" t="s">
-        <v>471</v>
+        <v>411</v>
       </c>
       <c r="K61" t="s">
-        <v>472</v>
+        <v>412</v>
       </c>
       <c r="L61" t="s">
-        <v>473</v>
+        <v>413</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>434</v>
+        <v>379</v>
       </c>
       <c r="O61" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6046,51 +5590,47 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>465</v>
+        <v>406</v>
       </c>
       <c r="X61" t="s">
-        <v>466</v>
+        <v>407</v>
       </c>
       <c r="Y61" t="s">
-        <v>474</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>64848</v>
       </c>
-      <c r="B62" t="n">
-        <v>136927</v>
-      </c>
-      <c r="C62" t="s">
-        <v>475</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>476</v>
+        <v>415</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I62" t="s">
-        <v>477</v>
+        <v>416</v>
       </c>
       <c r="J62" t="s">
-        <v>478</v>
+        <v>417</v>
       </c>
       <c r="K62" t="s">
-        <v>479</v>
+        <v>418</v>
       </c>
       <c r="L62" t="s">
-        <v>480</v>
+        <v>419</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
@@ -6107,60 +5647,56 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>481</v>
+        <v>420</v>
       </c>
       <c r="X62" t="s">
-        <v>482</v>
+        <v>421</v>
       </c>
       <c r="Y62" t="s">
-        <v>483</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>64848</v>
       </c>
-      <c r="B63" t="n">
-        <v>136928</v>
-      </c>
-      <c r="C63" t="s">
-        <v>484</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>485</v>
+        <v>423</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I63" t="s">
-        <v>486</v>
+        <v>424</v>
       </c>
       <c r="J63" t="s">
-        <v>487</v>
+        <v>425</v>
       </c>
       <c r="K63" t="s">
-        <v>488</v>
+        <v>426</v>
       </c>
       <c r="L63" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>464</v>
+        <v>405</v>
       </c>
       <c r="O63" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6174,54 +5710,50 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>64848</v>
       </c>
-      <c r="B64" t="n">
-        <v>31643</v>
-      </c>
-      <c r="C64" t="s">
-        <v>490</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>491</v>
+        <v>428</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I64" t="s">
-        <v>492</v>
+        <v>429</v>
       </c>
       <c r="J64" t="s">
-        <v>493</v>
+        <v>430</v>
       </c>
       <c r="K64" t="s">
-        <v>494</v>
+        <v>431</v>
       </c>
       <c r="L64" t="s">
-        <v>495</v>
+        <v>432</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>496</v>
+        <v>433</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6239,54 +5771,50 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>495</v>
+        <v>432</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>64848</v>
       </c>
-      <c r="B65" t="n">
-        <v>32640</v>
-      </c>
-      <c r="C65" t="s">
-        <v>497</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>498</v>
+        <v>434</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I65" t="s">
-        <v>499</v>
+        <v>435</v>
       </c>
       <c r="J65" t="s">
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="K65" t="s">
-        <v>501</v>
+        <v>437</v>
       </c>
       <c r="L65" t="s">
-        <v>502</v>
+        <v>438</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>496</v>
+        <v>433</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -6300,54 +5828,50 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>502</v>
+        <v>438</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>64848</v>
       </c>
-      <c r="B66" t="n">
-        <v>35148</v>
-      </c>
-      <c r="C66" t="s">
-        <v>503</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>504</v>
+        <v>439</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I66" t="s">
-        <v>505</v>
+        <v>440</v>
       </c>
       <c r="J66" t="s">
-        <v>506</v>
+        <v>441</v>
       </c>
       <c r="K66" t="s">
-        <v>507</v>
+        <v>442</v>
       </c>
       <c r="L66" t="s">
-        <v>508</v>
+        <v>443</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>496</v>
+        <v>433</v>
       </c>
       <c r="O66" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -6365,54 +5889,50 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>508</v>
+        <v>443</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>64848</v>
       </c>
-      <c r="B67" t="n">
-        <v>21841</v>
-      </c>
-      <c r="C67" t="s">
-        <v>509</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I67" t="s">
-        <v>511</v>
+        <v>445</v>
       </c>
       <c r="J67" t="s">
-        <v>512</v>
+        <v>446</v>
       </c>
       <c r="K67" t="s">
-        <v>513</v>
+        <v>447</v>
       </c>
       <c r="L67" t="s">
-        <v>514</v>
+        <v>448</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>496</v>
+        <v>433</v>
       </c>
       <c r="O67" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -6426,54 +5946,50 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>514</v>
+        <v>448</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>64848</v>
       </c>
-      <c r="B68" t="n">
-        <v>136929</v>
-      </c>
-      <c r="C68" t="s">
-        <v>515</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>516</v>
+        <v>449</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I68" t="s">
-        <v>517</v>
+        <v>450</v>
       </c>
       <c r="J68" t="s">
-        <v>518</v>
+        <v>451</v>
       </c>
       <c r="K68" t="s">
-        <v>519</v>
+        <v>452</v>
       </c>
       <c r="L68" t="s">
-        <v>520</v>
+        <v>453</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>464</v>
+        <v>405</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="n">
@@ -6491,54 +6007,50 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>520</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>64848</v>
       </c>
-      <c r="B69" t="n">
-        <v>136930</v>
-      </c>
-      <c r="C69" t="s">
-        <v>521</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F69" t="s">
-        <v>522</v>
+        <v>454</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I69" t="s">
-        <v>523</v>
+        <v>455</v>
       </c>
       <c r="J69" t="s">
-        <v>524</v>
+        <v>456</v>
       </c>
       <c r="K69" t="s">
-        <v>525</v>
+        <v>457</v>
       </c>
       <c r="L69" t="s">
-        <v>526</v>
+        <v>458</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>464</v>
+        <v>405</v>
       </c>
       <c r="O69" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6558,54 +6070,50 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>526</v>
+        <v>458</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>64848</v>
       </c>
-      <c r="B70" t="n">
-        <v>136931</v>
-      </c>
-      <c r="C70" t="s">
-        <v>527</v>
-      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>528</v>
+        <v>459</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I70" t="s">
-        <v>529</v>
+        <v>460</v>
       </c>
       <c r="J70" t="s">
-        <v>530</v>
+        <v>461</v>
       </c>
       <c r="K70" t="s">
         <v>12</v>
       </c>
       <c r="L70" t="s">
-        <v>531</v>
+        <v>462</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>464</v>
+        <v>405</v>
       </c>
       <c r="O70" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="n">
@@ -6623,54 +6131,50 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>531</v>
+        <v>462</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>64848</v>
       </c>
-      <c r="B71" t="n">
-        <v>136932</v>
-      </c>
-      <c r="C71" t="s">
-        <v>532</v>
-      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F71" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I71" t="s">
-        <v>534</v>
+        <v>464</v>
       </c>
       <c r="J71" t="s">
-        <v>535</v>
+        <v>465</v>
       </c>
       <c r="K71" t="s">
-        <v>536</v>
+        <v>466</v>
       </c>
       <c r="L71" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>464</v>
+        <v>405</v>
       </c>
       <c r="O71" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -6684,54 +6188,50 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>538</v>
+        <v>468</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>64848</v>
       </c>
-      <c r="B72" t="n">
-        <v>33830</v>
-      </c>
-      <c r="C72" t="s">
-        <v>539</v>
-      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s">
-        <v>540</v>
+        <v>469</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I72" t="s">
-        <v>541</v>
+        <v>470</v>
       </c>
       <c r="J72" t="s">
-        <v>542</v>
+        <v>471</v>
       </c>
       <c r="K72" t="s">
-        <v>543</v>
+        <v>472</v>
       </c>
       <c r="L72" t="s">
-        <v>544</v>
+        <v>473</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>545</v>
+        <v>474</v>
       </c>
       <c r="O72" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="n">
@@ -6751,54 +6251,50 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>546</v>
+        <v>475</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>64848</v>
       </c>
-      <c r="B73" t="n">
-        <v>136933</v>
-      </c>
-      <c r="C73" t="s">
-        <v>547</v>
-      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>548</v>
+        <v>476</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I73" t="s">
-        <v>549</v>
+        <v>477</v>
       </c>
       <c r="J73" t="s">
-        <v>550</v>
+        <v>478</v>
       </c>
       <c r="K73" t="s">
-        <v>551</v>
+        <v>479</v>
       </c>
       <c r="L73" t="s">
-        <v>552</v>
+        <v>480</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>545</v>
+        <v>474</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -6812,7 +6308,7 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>552</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
